--- a/stock_data.xlsx
+++ b/stock_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G298"/>
+  <dimension ref="A1:G275"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,559 +473,565 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Apple Inc.</t>
+          <t>Target Corporation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>TGT</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>198.15</v>
+        <v>93.11</v>
       </c>
       <c r="D2" t="n">
-        <v>7.73</v>
+        <v>2.65</v>
       </c>
       <c r="E2" t="n">
-        <v>86.538</v>
+        <v>4.251</v>
       </c>
       <c r="F2" t="n">
-        <v>2707</v>
+        <v>42.419</v>
       </c>
       <c r="G2" t="n">
-        <v>37.73</v>
+        <v>10.51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Lucid Group, Inc.</t>
+          <t>3M Company</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LCID</t>
+          <t>MMM</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2.5</v>
+        <v>130.21</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.02</v>
+        <v>-0.25</v>
       </c>
       <c r="E3" t="n">
-        <v>161.692</v>
+        <v>4.952</v>
       </c>
       <c r="F3" t="n">
-        <v>7.579</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>70.22499999999999</v>
+      </c>
+      <c r="G3" t="n">
+        <v>17.91</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ford Motor Company</t>
+          <t>Barrick Gold Corporation</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9.33</v>
+        <v>20.17</v>
       </c>
       <c r="D4" t="n">
-        <v>0.19</v>
+        <v>-0.48</v>
       </c>
       <c r="E4" t="n">
-        <v>139.924</v>
+        <v>18.02</v>
       </c>
       <c r="F4" t="n">
-        <v>37.101</v>
+        <v>34.691</v>
       </c>
       <c r="G4" t="n">
-        <v>6.39</v>
+        <v>16.53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Tesla, Inc.</t>
+          <t>Salesforce, Inc.</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>CRM</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>252.31</v>
+        <v>247.26</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.09</v>
+        <v>-2.58</v>
       </c>
       <c r="E5" t="n">
-        <v>128.412</v>
+        <v>5.271</v>
       </c>
       <c r="F5" t="n">
-        <v>811.5599999999999</v>
+        <v>237.617</v>
       </c>
       <c r="G5" t="n">
-        <v>123.68</v>
+        <v>38.94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Intel Corporation</t>
+          <t>The Coca-Cola Company</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>INTC</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19.74</v>
+        <v>73</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.14</v>
+        <v>1.32</v>
       </c>
       <c r="E6" t="n">
-        <v>127.622</v>
+        <v>18.984</v>
       </c>
       <c r="F6" t="n">
-        <v>86.078</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>314.161</v>
+      </c>
+      <c r="G6" t="n">
+        <v>29.67</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Palantir Technologies Inc.</t>
+          <t>Verizon Communications Inc.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>PLTR</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>88.55</v>
+        <v>44.04</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.04</v>
+        <v>0.43</v>
       </c>
       <c r="E7" t="n">
-        <v>94.81100000000001</v>
+        <v>16.099</v>
       </c>
       <c r="F7" t="n">
-        <v>207.682</v>
+        <v>188.932</v>
       </c>
       <c r="G7" t="n">
-        <v>466.05</v>
+        <v>117.74</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Apple Inc.</t>
+          <t>Ambev S.A.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>AAPL</t>
+          <t>ABEV</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>198.15</v>
+        <v>2.4</v>
       </c>
       <c r="D8" t="n">
-        <v>7.73</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>86.538</v>
+        <v>69.77</v>
       </c>
       <c r="F8" t="n">
-        <v>2977</v>
+        <v>37.553</v>
       </c>
       <c r="G8" t="n">
-        <v>31.45</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Recursion Pharmaceuticals, Inc.</t>
+          <t>Lucid Group, Inc.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RXRX</t>
+          <t>LCID</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5.76</v>
+        <v>2.38</v>
       </c>
       <c r="D9" t="n">
-        <v>1.25</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>82.996</v>
+        <v>68.193</v>
       </c>
       <c r="F9" t="n">
-        <v>2.315</v>
+        <v>7.215</v>
       </c>
       <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sprott Physical Silver Trust</t>
+          <t>B2Gold Corp.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PSLV</t>
+          <t>BTG</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10.76</v>
+        <v>3.32</v>
       </c>
       <c r="D10" t="n">
-        <v>0.24</v>
+        <v>-0.03</v>
       </c>
       <c r="E10" t="n">
-        <v>78.60299999999999</v>
+        <v>56.957</v>
       </c>
       <c r="F10" t="n">
-        <v>5.595</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6.52</v>
-      </c>
+        <v>4.381</v>
+      </c>
+      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Amcor plc</t>
+          <t>American Airlines Group Inc.</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AMCR</t>
+          <t>AAL</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>9.33</v>
+        <v>9.460000000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
       <c r="E11" t="n">
-        <v>70.005</v>
+        <v>53.334</v>
       </c>
       <c r="F11" t="n">
-        <v>13.485</v>
+        <v>6.221</v>
       </c>
       <c r="G11" t="n">
-        <v>16.96</v>
+        <v>7.63</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Warner Bros. Discovery, Inc.</t>
+          <t>Pfizer Inc.</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>WBD</t>
+          <t>PFE</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>7.97</v>
+        <v>22.14</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.13</v>
+        <v>0.1</v>
       </c>
       <c r="E12" t="n">
-        <v>36.246</v>
+        <v>51.208</v>
       </c>
       <c r="F12" t="n">
-        <v>19.564</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
+        <v>125.566</v>
+      </c>
+      <c r="G12" t="n">
+        <v>15.7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Alibaba Group Holding Limited</t>
+          <t>Apple Inc.</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>BABA</t>
+          <t>AAPL</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>107.73</v>
+        <v>196.98</v>
       </c>
       <c r="D13" t="n">
-        <v>3.55</v>
+        <v>2.71</v>
       </c>
       <c r="E13" t="n">
-        <v>35.811</v>
+        <v>51.276</v>
       </c>
       <c r="F13" t="n">
-        <v>257.282</v>
+        <v>2959</v>
       </c>
       <c r="G13" t="n">
-        <v>15.89</v>
+        <v>31.27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MARA Holdings, Inc.</t>
+          <t>Bank of America Corporation</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>MARA</t>
+          <t>BAC</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>12.51</v>
+        <v>37.41</v>
       </c>
       <c r="D14" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="E14" t="n">
-        <v>34.724</v>
+        <v>46.372</v>
       </c>
       <c r="F14" t="n">
-        <v>4.326</v>
+        <v>282.823</v>
       </c>
       <c r="G14" t="n">
-        <v>7.27</v>
+        <v>11.17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Alphabet Inc.</t>
+          <t>SoFi Technologies, Inc.</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>GOOGL</t>
+          <t>SOFI</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>157.14</v>
+        <v>10.98</v>
       </c>
       <c r="D15" t="n">
-        <v>4.32</v>
+        <v>0.32</v>
       </c>
       <c r="E15" t="n">
-        <v>33.583</v>
+        <v>46.571</v>
       </c>
       <c r="F15" t="n">
-        <v>1928</v>
+        <v>12.123</v>
       </c>
       <c r="G15" t="n">
-        <v>19.52</v>
+        <v>28.15</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Banco Bradesco S.A.</t>
+          <t>Amazon.com, Inc.</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>BBD</t>
+          <t>AMZN</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.19</v>
+        <v>172.61</v>
       </c>
       <c r="D16" t="n">
-        <v>0.08</v>
+        <v>-1.72</v>
       </c>
       <c r="E16" t="n">
-        <v>33.452</v>
+        <v>44.148</v>
       </c>
       <c r="F16" t="n">
-        <v>21.384</v>
+        <v>1832</v>
       </c>
       <c r="G16" t="n">
-        <v>8.109999999999999</v>
+        <v>31.27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Itaú Unibanco Holding S.A.</t>
+          <t>AGNC Investment Corp.</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ITUB</t>
+          <t>AGNC</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5.47</v>
+        <v>8.34</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="E17" t="n">
-        <v>32.574</v>
+        <v>38.942</v>
       </c>
       <c r="F17" t="n">
-        <v>55.034</v>
+        <v>7.899</v>
       </c>
       <c r="G17" t="n">
-        <v>8.42</v>
+        <v>8.970000000000001</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Full Truck Alliance Co. Ltd.</t>
+          <t>Advanced Micro Devices, Inc.</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>YMM</t>
+          <t>AMD</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>9.67</v>
+        <v>87.5</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.5600000000000001</v>
+        <v>-0.79</v>
       </c>
       <c r="E18" t="n">
-        <v>31.105</v>
+        <v>34.666</v>
       </c>
       <c r="F18" t="n">
-        <v>10.112</v>
+        <v>142.155</v>
       </c>
       <c r="G18" t="n">
-        <v>23.59</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Wells Fargo &amp; Company</t>
+          <t>Nu Holdings Ltd.</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>WFC</t>
+          <t>NU</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>62.51</v>
+        <v>11</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.6</v>
+        <v>0.2</v>
       </c>
       <c r="E19" t="n">
-        <v>33.835</v>
+        <v>34.616</v>
       </c>
       <c r="F19" t="n">
-        <v>203.888</v>
+        <v>53.005</v>
       </c>
       <c r="G19" t="n">
-        <v>11.24</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Veren Inc.</t>
+          <t>Alphabet Inc.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>VRN</t>
+          <t>GOOGL</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5.74</v>
+        <v>151.16</v>
       </c>
       <c r="D20" t="n">
-        <v>0.27</v>
+        <v>-2.17</v>
       </c>
       <c r="E20" t="n">
-        <v>30.811</v>
+        <v>32.915</v>
       </c>
       <c r="F20" t="n">
-        <v>3.512</v>
+        <v>1855</v>
       </c>
       <c r="G20" t="n">
-        <v>17.39</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Newmont Corporation</t>
+          <t>Petróleo Brasileiro S.A. - Petrobras</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NEM</t>
+          <t>PBR</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>54.97</v>
+        <v>11.62</v>
       </c>
       <c r="D21" t="n">
-        <v>4.03</v>
+        <v>0.4</v>
       </c>
       <c r="E21" t="n">
-        <v>29.151</v>
+        <v>32.518</v>
       </c>
       <c r="F21" t="n">
-        <v>61.965</v>
+        <v>70.69799999999999</v>
       </c>
       <c r="G21" t="n">
-        <v>19.22</v>
+        <v>10.02</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Telefonaktiebolaget LM Ericsson (publ)</t>
+          <t>Novo Nordisk A/S</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ERIC</t>
+          <t>NVO</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>7.29</v>
+        <v>58.08</v>
       </c>
       <c r="D22" t="n">
-        <v>0.18</v>
+        <v>-4.8</v>
       </c>
       <c r="E22" t="n">
-        <v>28.712</v>
+        <v>30.205</v>
       </c>
       <c r="F22" t="n">
-        <v>23.938</v>
-      </c>
-      <c r="G22" t="inlineStr"/>
+        <v>285.369</v>
+      </c>
+      <c r="G22" t="n">
+        <v>16.98</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1039,7333 +1045,6714 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>7.96</v>
+        <v>7.88</v>
       </c>
       <c r="D23" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="E23" t="n">
-        <v>28.39</v>
+        <v>31.59</v>
       </c>
       <c r="F23" t="n">
-        <v>13.503</v>
+        <v>13.367</v>
       </c>
       <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Micron Technology, Inc.</t>
+          <t>Huntington Bancshares Incorporated</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>HBAN</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>69.55</v>
+        <v>13.67</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.5</v>
+        <v>0.4</v>
       </c>
       <c r="E24" t="n">
-        <v>30.121</v>
+        <v>30.776</v>
       </c>
       <c r="F24" t="n">
-        <v>77.727</v>
+        <v>19.915</v>
       </c>
       <c r="G24" t="n">
-        <v>16.64</v>
+        <v>10.52</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Grab Holdings Limited</t>
+          <t>Veren Inc.</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>GRAB</t>
+          <t>VRN</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4.05</v>
+        <v>6.13</v>
       </c>
       <c r="D25" t="n">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="E25" t="n">
-        <v>30.091</v>
+        <v>29.639</v>
       </c>
       <c r="F25" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
+        <v>3.75</v>
+      </c>
+      <c r="G25" t="n">
+        <v>18.58</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Broadcom Inc.</t>
+          <t>UnitedHealth Group Incorporated</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AVGO</t>
+          <t>UNH</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>181.94</v>
+        <v>454.11</v>
       </c>
       <c r="D26" t="n">
-        <v>9.640000000000001</v>
+        <v>-130.93</v>
       </c>
       <c r="E26" t="n">
-        <v>33.739</v>
+        <v>27.713</v>
       </c>
       <c r="F26" t="n">
-        <v>855.473</v>
+        <v>415.38</v>
       </c>
       <c r="G26" t="n">
-        <v>83.84</v>
+        <v>19.01</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Rigetti Computing, Inc.</t>
+          <t>Warner Bros. Discovery, Inc.</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>RGTI</t>
+          <t>WBD</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>9.1</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.32</v>
+        <v>0.19</v>
       </c>
       <c r="E27" t="n">
-        <v>27.181</v>
+        <v>28.452</v>
       </c>
       <c r="F27" t="n">
-        <v>2.601</v>
+        <v>19.908</v>
       </c>
       <c r="G27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Super Micro Computer, Inc.</t>
+          <t>Taiwan Semiconductor Manufacturing Company Limited</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SMCI</t>
+          <t>TSM</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>33.15</v>
+        <v>151.74</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.53</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E28" t="n">
-        <v>27.184</v>
+        <v>26.995</v>
       </c>
       <c r="F28" t="n">
-        <v>19.674</v>
+        <v>787.0069999999999</v>
       </c>
       <c r="G28" t="n">
-        <v>14.41</v>
+        <v>19.81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AT&amp;T Inc.</t>
+          <t>Super Micro Computer, Inc.</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>T</t>
+          <t>SMCI</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>26.79</v>
+        <v>31.5</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4</v>
+        <v>-0.39</v>
       </c>
       <c r="E29" t="n">
-        <v>26.042</v>
+        <v>26.806</v>
       </c>
       <c r="F29" t="n">
-        <v>192.908</v>
+        <v>18.698</v>
       </c>
       <c r="G29" t="n">
-        <v>17.98</v>
+        <v>13.7</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Hecla Mining Company</t>
+          <t>Vale S.A.</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HL</t>
+          <t>VALE</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5.78</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.31</v>
+        <v>0.11</v>
       </c>
       <c r="E30" t="n">
-        <v>24.416</v>
+        <v>26.675</v>
       </c>
       <c r="F30" t="n">
-        <v>3.655</v>
+        <v>38.889</v>
       </c>
       <c r="G30" t="n">
-        <v>96.33</v>
+        <v>6.33</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Verizon Communications Inc.</t>
+          <t>Telefonaktiebolaget LM Ericsson (publ)</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>VZ</t>
+          <t>ERIC</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>43.73</v>
+        <v>8.17</v>
       </c>
       <c r="D31" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="E31" t="n">
-        <v>24.291</v>
+        <v>26.138</v>
       </c>
       <c r="F31" t="n">
-        <v>187.602</v>
+        <v>26.832</v>
       </c>
       <c r="G31" t="n">
-        <v>10.56</v>
+        <v>163.4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>CEMEX, S.A.B. de C.V.</t>
+          <t>Sprott Physical Silver Trust</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CX</t>
+          <t>PSLV</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5.18</v>
+        <v>10.96</v>
       </c>
       <c r="D32" t="n">
-        <v>0.16</v>
+        <v>-0.06</v>
       </c>
       <c r="E32" t="n">
-        <v>30.192</v>
+        <v>26.052</v>
       </c>
       <c r="F32" t="n">
-        <v>7.515</v>
+        <v>5.699</v>
       </c>
       <c r="G32" t="n">
-        <v>8.49</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Freeport-McMoRan Inc.</t>
+          <t>Banco Bradesco S.A.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>FCX</t>
+          <t>BBD</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>33.35</v>
+        <v>2.22</v>
       </c>
       <c r="D33" t="n">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="E33" t="n">
-        <v>23.862</v>
+        <v>25.041</v>
       </c>
       <c r="F33" t="n">
-        <v>47.926</v>
+        <v>21.807</v>
       </c>
       <c r="G33" t="n">
-        <v>25.65</v>
+        <v>8.539999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ambev S.A.</t>
+          <t>Lloyds Banking Group plc</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ABEV</t>
+          <t>LYG</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2.25</v>
+        <v>3.76</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>23.886</v>
+        <v>24.84</v>
       </c>
       <c r="F34" t="n">
-        <v>36.557</v>
+        <v>56.416</v>
       </c>
       <c r="G34" t="n">
-        <v>14.06</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Huntington Bancshares Incorporated</t>
+          <t>AT&amp;T Inc.</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>HBAN</t>
+          <t>T</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>12.89</v>
+        <v>27.15</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="E35" t="n">
-        <v>22.676</v>
+        <v>18.809</v>
       </c>
       <c r="F35" t="n">
-        <v>18.829</v>
+        <v>195.5</v>
       </c>
       <c r="G35" t="n">
-        <v>10.57</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Rivian Automotive, Inc.</t>
+          <t>Robinhood Markets, Inc.</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RIVN</t>
+          <t>HOOD</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>11.47</v>
+        <v>41.18</v>
       </c>
       <c r="D36" t="n">
-        <v>0.01</v>
+        <v>0.52</v>
       </c>
       <c r="E36" t="n">
-        <v>22.46</v>
+        <v>23.544</v>
       </c>
       <c r="F36" t="n">
-        <v>12.969</v>
-      </c>
-      <c r="G36" t="inlineStr"/>
+        <v>36.463</v>
+      </c>
+      <c r="G36" t="n">
+        <v>26.4</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Kinross Gold Corporation</t>
+          <t>NIO Inc.</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>KGC</t>
+          <t>NIO</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>14.38</v>
+        <v>3.52</v>
       </c>
       <c r="D37" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>24.148</v>
+        <v>22.934</v>
       </c>
       <c r="F37" t="n">
-        <v>17.694</v>
-      </c>
-      <c r="G37" t="n">
-        <v>18.68</v>
-      </c>
+        <v>7.913</v>
+      </c>
+      <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>IAMGOLD Corporation</t>
+          <t>Broadcom Inc.</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>IAG</t>
+          <t>AVGO</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>7.22</v>
+        <v>170.99</v>
       </c>
       <c r="D38" t="n">
-        <v>0.34</v>
+        <v>-3.62</v>
       </c>
       <c r="E38" t="n">
-        <v>23.551</v>
+        <v>22.444</v>
       </c>
       <c r="F38" t="n">
-        <v>4.152</v>
+        <v>803.986</v>
       </c>
       <c r="G38" t="n">
-        <v>4.81</v>
+        <v>79.53</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Walmart Inc.</t>
+          <t>Hewlett Packard Enterprise Company</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>WMT</t>
+          <t>HPE</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>92.8</v>
+        <v>15.14</v>
       </c>
       <c r="D39" t="n">
-        <v>2.19</v>
+        <v>0.26</v>
       </c>
       <c r="E39" t="n">
-        <v>21.498</v>
+        <v>22.456</v>
       </c>
       <c r="F39" t="n">
-        <v>743.9640000000001</v>
+        <v>19.888</v>
       </c>
       <c r="G39" t="n">
-        <v>38.51</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Stellantis N.V.</t>
+          <t>New Gold Inc.</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>STLA</t>
+          <t>NGD</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>8.869999999999999</v>
+        <v>3.64</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.04</v>
+        <v>-0.1</v>
       </c>
       <c r="E40" t="n">
-        <v>21.329</v>
+        <v>21.91</v>
       </c>
       <c r="F40" t="n">
-        <v>25.55</v>
+        <v>2.889</v>
       </c>
       <c r="G40" t="n">
-        <v>4.29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>New Gold Inc.</t>
+          <t>Uber Technologies, Inc.</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>NGD</t>
+          <t>UBER</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3.57</v>
+        <v>75.23999999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.17</v>
+        <v>2.18</v>
       </c>
       <c r="E41" t="n">
-        <v>21.359</v>
+        <v>18.705</v>
       </c>
       <c r="F41" t="n">
-        <v>2.825</v>
+        <v>157.346</v>
       </c>
       <c r="G41" t="n">
-        <v>25.5</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>NIKE, Inc.</t>
+          <t>Comcast Corporation</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>NKE</t>
+          <t>CMCSA</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>54.39</v>
+        <v>34.01</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.01</v>
+        <v>0.46</v>
       </c>
       <c r="E42" t="n">
-        <v>20.969</v>
+        <v>21.39</v>
       </c>
       <c r="F42" t="n">
-        <v>80.279</v>
+        <v>128.592</v>
       </c>
       <c r="G42" t="n">
-        <v>18.07</v>
+        <v>8.210000000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Comcast Corporation</t>
+          <t>Kenvue Inc.</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CMCSA</t>
+          <t>KVUE</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>33.72</v>
+        <v>23.39</v>
       </c>
       <c r="D43" t="n">
-        <v>0.04</v>
+        <v>0.66</v>
       </c>
       <c r="E43" t="n">
-        <v>26.654</v>
+        <v>22.595</v>
       </c>
       <c r="F43" t="n">
-        <v>127.496</v>
+        <v>44.878</v>
       </c>
       <c r="G43" t="n">
-        <v>8.140000000000001</v>
+        <v>43.31</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Cisco Systems, Inc.</t>
+          <t>Itaú Unibanco Holding S.A.</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>CSCO</t>
+          <t>ITUB</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>57.33</v>
+        <v>5.66</v>
       </c>
       <c r="D44" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>23.032</v>
+        <v>21.231</v>
       </c>
       <c r="F44" t="n">
-        <v>228.075</v>
+        <v>56.388</v>
       </c>
       <c r="G44" t="n">
-        <v>25.14</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>JD.com, Inc.</t>
+          <t>CleanSpark, Inc.</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>JD</t>
+          <t>CLSK</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>36.42</v>
+        <v>7.51</v>
       </c>
       <c r="D45" t="n">
-        <v>0.84</v>
+        <v>0.23</v>
       </c>
       <c r="E45" t="n">
-        <v>22.288</v>
+        <v>21.121</v>
       </c>
       <c r="F45" t="n">
-        <v>56.448</v>
-      </c>
-      <c r="G45" t="n">
-        <v>9.98</v>
-      </c>
+        <v>2.109</v>
+      </c>
+      <c r="G45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Dun &amp; Bradstreet Holdings, Inc.</t>
+          <t>Walmart Inc.</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>DNB</t>
+          <t>WMT</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>8.630000000000001</v>
+        <v>93.22</v>
       </c>
       <c r="D46" t="n">
-        <v>0.05</v>
+        <v>2.03</v>
       </c>
       <c r="E46" t="n">
-        <v>21.054</v>
+        <v>20.448</v>
       </c>
       <c r="F46" t="n">
-        <v>3.837</v>
-      </c>
-      <c r="G46" t="inlineStr"/>
+        <v>747.331</v>
+      </c>
+      <c r="G46" t="n">
+        <v>38.68</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Strategy Incorporated</t>
+          <t>CSX Corporation</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>MSTR</t>
+          <t>CSX</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>299.98</v>
+        <v>27.68</v>
       </c>
       <c r="D47" t="n">
-        <v>27.64</v>
+        <v>0.33</v>
       </c>
       <c r="E47" t="n">
-        <v>21.156</v>
+        <v>20.966</v>
       </c>
       <c r="F47" t="n">
-        <v>79.848</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
+        <v>51.998</v>
+      </c>
+      <c r="G47" t="n">
+        <v>16.48</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>XPeng Inc.</t>
+          <t>Microsoft Corporation</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>XPEV</t>
+          <t>MSFT</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>20</v>
+        <v>367.78</v>
       </c>
       <c r="D48" t="n">
-        <v>2.03</v>
+        <v>-3.83</v>
       </c>
       <c r="E48" t="n">
-        <v>21.344</v>
+        <v>20.859</v>
       </c>
       <c r="F48" t="n">
-        <v>18.611</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
+        <v>2734</v>
+      </c>
+      <c r="G48" t="n">
+        <v>29.68</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>PDD Holdings Inc.</t>
+          <t>Archer Aviation Inc.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>PDD</t>
+          <t>ACHR</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>90.5</v>
+        <v>7.23</v>
       </c>
       <c r="D49" t="n">
-        <v>2.15</v>
+        <v>0.18</v>
       </c>
       <c r="E49" t="n">
-        <v>21.079</v>
+        <v>20.321</v>
       </c>
       <c r="F49" t="n">
-        <v>125.684</v>
-      </c>
-      <c r="G49" t="n">
-        <v>8.75</v>
-      </c>
+        <v>3.922</v>
+      </c>
+      <c r="G49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Hewlett Packard Enterprise Company</t>
+          <t>Riot Platforms, Inc.</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>HPE</t>
+          <t>RIOT</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>14.14</v>
+        <v>6.46</v>
       </c>
       <c r="D50" t="n">
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="E50" t="n">
-        <v>23.788</v>
+        <v>20.794</v>
       </c>
       <c r="F50" t="n">
-        <v>18.574</v>
+        <v>2.262</v>
       </c>
       <c r="G50" t="n">
-        <v>6.8</v>
+        <v>19</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Nokia Oyj</t>
+          <t>The Coca-Cola Company</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>NOK</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4.96</v>
+        <v>73</v>
       </c>
       <c r="D51" t="n">
-        <v>0.14</v>
+        <v>1.32</v>
       </c>
       <c r="E51" t="n">
-        <v>19.3</v>
+        <v>18.984</v>
       </c>
       <c r="F51" t="n">
-        <v>26.711</v>
+        <v>314.161</v>
       </c>
       <c r="G51" t="n">
-        <v>14.59</v>
+        <v>29.67</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Citigroup Inc.</t>
+          <t>Infosys Limited</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>C</t>
+          <t>INFY</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>61.64</v>
+        <v>16.14</v>
       </c>
       <c r="D52" t="n">
-        <v>0.05</v>
+        <v>-0.44</v>
       </c>
       <c r="E52" t="n">
-        <v>22.465</v>
+        <v>19.631</v>
       </c>
       <c r="F52" t="n">
-        <v>116.016</v>
+        <v>68.687</v>
       </c>
       <c r="G52" t="n">
-        <v>10.36</v>
+        <v>21.24</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Exxon Mobil Corporation</t>
+          <t>QXO, Inc.</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>XOM</t>
+          <t>QXO</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>103.14</v>
+        <v>13.15</v>
       </c>
       <c r="D53" t="n">
-        <v>3.21</v>
+        <v>-1.11</v>
       </c>
       <c r="E53" t="n">
-        <v>18.949</v>
+        <v>20.577</v>
       </c>
       <c r="F53" t="n">
-        <v>446.11</v>
-      </c>
-      <c r="G53" t="n">
-        <v>13.16</v>
-      </c>
+        <v>5.384</v>
+      </c>
+      <c r="G53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CleanSpark, Inc.</t>
+          <t>Micron Technology, Inc.</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>CLSK</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>7.5</v>
+        <v>68.8</v>
       </c>
       <c r="D54" t="n">
-        <v>0.37</v>
+        <v>-0.53</v>
       </c>
       <c r="E54" t="n">
-        <v>19.474</v>
+        <v>20.437</v>
       </c>
       <c r="F54" t="n">
-        <v>2.106</v>
-      </c>
-      <c r="G54" t="inlineStr"/>
+        <v>76.889</v>
+      </c>
+      <c r="G54" t="n">
+        <v>16.46</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Alphabet Inc.</t>
+          <t>Merck &amp; Co., Inc.</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>MRK</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>159.4</v>
+        <v>78</v>
       </c>
       <c r="D55" t="n">
-        <v>4.03</v>
+        <v>1.54</v>
       </c>
       <c r="E55" t="n">
-        <v>22.273</v>
+        <v>12.64</v>
       </c>
       <c r="F55" t="n">
-        <v>1928</v>
+        <v>196.278</v>
       </c>
       <c r="G55" t="n">
-        <v>19.85</v>
+        <v>11.57</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Schlumberger Limited</t>
+          <t>MP Materials Corp.</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>SLB</t>
+          <t>MP</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>33.96</v>
+        <v>26.35</v>
       </c>
       <c r="D56" t="n">
-        <v>1.42</v>
+        <v>-1.23</v>
       </c>
       <c r="E56" t="n">
-        <v>18.644</v>
+        <v>19.597</v>
       </c>
       <c r="F56" t="n">
-        <v>46.181</v>
-      </c>
-      <c r="G56" t="n">
-        <v>10.92</v>
-      </c>
+        <v>4.307</v>
+      </c>
+      <c r="G56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Texas Instruments Incorporated</t>
+          <t>CNH Industrial N.V.</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>TXN</t>
+          <t>CNH</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>147.6</v>
+        <v>11.12</v>
       </c>
       <c r="D57" t="n">
-        <v>-9</v>
+        <v>0.02</v>
       </c>
       <c r="E57" t="n">
-        <v>20.728</v>
+        <v>19.92</v>
       </c>
       <c r="F57" t="n">
-        <v>134.304</v>
+        <v>13.878</v>
       </c>
       <c r="G57" t="n">
-        <v>28.38</v>
+        <v>11.23</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Cleveland-Cliffs Inc.</t>
+          <t>Alphabet Inc.</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CLF</t>
+          <t>GOOG</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>7.34</v>
+        <v>153.36</v>
       </c>
       <c r="D58" t="n">
-        <v>0.06</v>
+        <v>-2.14</v>
       </c>
       <c r="E58" t="n">
-        <v>18.367</v>
+        <v>19.368</v>
       </c>
       <c r="F58" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="G58" t="inlineStr"/>
+        <v>1855</v>
+      </c>
+      <c r="G58" t="n">
+        <v>19.07</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Rocket Companies, Inc.</t>
+          <t>MARA Holdings, Inc.</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>RKT</t>
+          <t>MARA</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>11.9</v>
+        <v>12.66</v>
       </c>
       <c r="D59" t="n">
-        <v>0.02</v>
+        <v>0.34</v>
       </c>
       <c r="E59" t="n">
-        <v>18.014</v>
+        <v>19.297</v>
       </c>
       <c r="F59" t="n">
-        <v>23.649</v>
+        <v>4.378</v>
       </c>
       <c r="G59" t="n">
-        <v>56.67</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Energy Transfer LP</t>
+          <t>Kinross Gold Corporation</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ET</t>
+          <t>KGC</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>16.33</v>
+        <v>14.8</v>
       </c>
       <c r="D60" t="n">
-        <v>0.42</v>
+        <v>-0.23</v>
       </c>
       <c r="E60" t="n">
-        <v>18.348</v>
+        <v>18.561</v>
       </c>
       <c r="F60" t="n">
-        <v>56.032</v>
+        <v>18.211</v>
       </c>
       <c r="G60" t="n">
-        <v>12.76</v>
+        <v>19.22</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Microsoft Corporation</t>
+          <t>The Charles Schwab Corporation</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MSFT</t>
+          <t>SCHW</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>388.45</v>
+        <v>76.15000000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>7.1</v>
+        <v>0.45</v>
       </c>
       <c r="E61" t="n">
-        <v>23.815</v>
+        <v>19.271</v>
       </c>
       <c r="F61" t="n">
-        <v>2888</v>
+        <v>138.282</v>
       </c>
       <c r="G61" t="n">
-        <v>31.35</v>
+        <v>23.08</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Taiwan Semiconductor Manufacturing Company Limited</t>
+          <t>Barrick Gold Corporation</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>TSM</t>
+          <t>GOLD</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>157.08</v>
+        <v>20.17</v>
       </c>
       <c r="D62" t="n">
-        <v>5.95</v>
+        <v>-0.48</v>
       </c>
       <c r="E62" t="n">
-        <v>17.855</v>
+        <v>18.02</v>
       </c>
       <c r="F62" t="n">
-        <v>814.703</v>
+        <v>34.691</v>
       </c>
       <c r="G62" t="n">
-        <v>22.63</v>
+        <v>16.53</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>JPMorgan Chase &amp; Co.</t>
+          <t>NIKE, Inc.</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>JPM</t>
+          <t>NKE</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>236.2</v>
+        <v>55.76</v>
       </c>
       <c r="D63" t="n">
-        <v>9.09</v>
+        <v>2.21</v>
       </c>
       <c r="E63" t="n">
-        <v>20.254</v>
+        <v>18.882</v>
       </c>
       <c r="F63" t="n">
-        <v>656.423</v>
+        <v>82.301</v>
       </c>
       <c r="G63" t="n">
-        <v>11.59</v>
+        <v>18.52</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Shopify Inc. Class A Subordinate Voting Shares</t>
+          <t>KeyCorp</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>SHOP</t>
+          <t>KEY</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>83.70999999999999</v>
+        <v>14.27</v>
       </c>
       <c r="D64" t="n">
-        <v>-0.92</v>
+        <v>0.2</v>
       </c>
       <c r="E64" t="n">
-        <v>18.037</v>
+        <v>19.001</v>
       </c>
       <c r="F64" t="n">
-        <v>107.996</v>
-      </c>
-      <c r="G64" t="n">
-        <v>54.01</v>
-      </c>
+        <v>15.868</v>
+      </c>
+      <c r="G64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Coeur Mining, Inc.</t>
+          <t>Wells Fargo &amp; Company</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>CDE</t>
+          <t>WFC</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5.92</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="D65" t="n">
-        <v>0.43</v>
+        <v>0.73</v>
       </c>
       <c r="E65" t="n">
-        <v>18.981</v>
+        <v>18.925</v>
       </c>
       <c r="F65" t="n">
-        <v>3.784</v>
+        <v>211.063</v>
       </c>
       <c r="G65" t="n">
-        <v>39.47</v>
+        <v>11.64</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Marvell Technology, Inc.</t>
+          <t>Patterson-UTI Energy, Inc.</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>MRVL</t>
+          <t>PTEN</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>53.39</v>
+        <v>6.07</v>
       </c>
       <c r="D66" t="n">
-        <v>0.58</v>
+        <v>0.24</v>
       </c>
       <c r="E66" t="n">
-        <v>17.7</v>
+        <v>18.576</v>
       </c>
       <c r="F66" t="n">
-        <v>46.239</v>
+        <v>2.343</v>
       </c>
       <c r="G66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ON Semiconductor Corporation</t>
+          <t>Regions Financial Corporation</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ON</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>35.08</v>
+        <v>19.31</v>
       </c>
       <c r="D67" t="n">
-        <v>0.19</v>
+        <v>0.14</v>
       </c>
       <c r="E67" t="n">
-        <v>19.747</v>
+        <v>18.652</v>
       </c>
       <c r="F67" t="n">
-        <v>14.803</v>
+        <v>17.36</v>
       </c>
       <c r="G67" t="n">
-        <v>9.66</v>
+        <v>9.33</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Tencent Music Entertainment Group</t>
+          <t>Hims &amp; Hers Health, Inc.</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TME</t>
+          <t>HIMS</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>12.23</v>
+        <v>27.23</v>
       </c>
       <c r="D68" t="n">
-        <v>-0.26</v>
+        <v>0.28</v>
       </c>
       <c r="E68" t="n">
-        <v>18.367</v>
+        <v>18.009</v>
       </c>
       <c r="F68" t="n">
-        <v>21.93</v>
+        <v>6.05</v>
       </c>
       <c r="G68" t="n">
-        <v>21.09</v>
+        <v>51.38</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Microchip Technology Incorporated</t>
+          <t>Stellantis N.V.</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>MCHP</t>
+          <t>STLA</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>38.71</v>
+        <v>9.43</v>
       </c>
       <c r="D69" t="n">
-        <v>-0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E69" t="n">
-        <v>19.533</v>
+        <v>18.246</v>
       </c>
       <c r="F69" t="n">
-        <v>20.819</v>
+        <v>27.215</v>
       </c>
       <c r="G69" t="n">
-        <v>67.91</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Carnival Corporation &amp; plc</t>
+          <t>Sibanye Stillwater Limited</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>CCL</t>
+          <t>SBSW</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>17.64</v>
+        <v>4.97</v>
       </c>
       <c r="D70" t="n">
-        <v>0.04</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E70" t="n">
-        <v>17.197</v>
+        <v>18.191</v>
       </c>
       <c r="F70" t="n">
-        <v>23.9</v>
-      </c>
-      <c r="G70" t="n">
-        <v>11.38</v>
-      </c>
+        <v>3.517</v>
+      </c>
+      <c r="G70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Barclays PLC</t>
+          <t>Kinder Morgan, Inc.</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>BCS</t>
+          <t>KMI</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>13.94</v>
+        <v>27.1</v>
       </c>
       <c r="D71" t="n">
-        <v>0.38</v>
+        <v>0.15</v>
       </c>
       <c r="E71" t="n">
-        <v>17.124</v>
+        <v>18.083</v>
       </c>
       <c r="F71" t="n">
-        <v>49.783</v>
+        <v>60.218</v>
       </c>
       <c r="G71" t="n">
-        <v>7.79</v>
+        <v>23.36</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Equinox Gold Corp.</t>
+          <t>Exxon Mobil Corporation</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>EQX</t>
+          <t>XOM</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>6.82</v>
+        <v>106.92</v>
       </c>
       <c r="D72" t="n">
-        <v>0.33</v>
+        <v>2.73</v>
       </c>
       <c r="E72" t="n">
-        <v>16.914</v>
+        <v>14.588</v>
       </c>
       <c r="F72" t="n">
-        <v>3.11</v>
+        <v>462.46</v>
       </c>
       <c r="G72" t="n">
-        <v>9.09</v>
+        <v>13.64</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Aegon Ltd.</t>
+          <t>Barclays PLC</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>AEG</t>
+          <t>BCS</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5.97</v>
+        <v>14.72</v>
       </c>
       <c r="D73" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
       <c r="E73" t="n">
-        <v>16.862</v>
+        <v>17.624</v>
       </c>
       <c r="F73" t="n">
-        <v>9.456</v>
+        <v>52.553</v>
       </c>
       <c r="G73" t="n">
-        <v>14.56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>U.S. Bancorp</t>
+          <t>Alibaba Group Holding Limited</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>USB</t>
+          <t>BABA</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>37.86</v>
+        <v>108.87</v>
       </c>
       <c r="D74" t="n">
-        <v>0.61</v>
+        <v>2.12</v>
       </c>
       <c r="E74" t="n">
-        <v>18.551</v>
+        <v>17.453</v>
       </c>
       <c r="F74" t="n">
-        <v>58.986</v>
+        <v>267.447</v>
       </c>
       <c r="G74" t="n">
-        <v>9.99</v>
+        <v>16.13</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Occidental Petroleum Corporation</t>
+          <t>Global Payments Inc.</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>OXY</t>
+          <t>GPN</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>37.67</v>
+        <v>69.45999999999999</v>
       </c>
       <c r="D75" t="n">
-        <v>1.2</v>
+        <v>-14.66</v>
       </c>
       <c r="E75" t="n">
-        <v>16.436</v>
+        <v>17.529</v>
       </c>
       <c r="F75" t="n">
-        <v>36.979</v>
+        <v>17.079</v>
       </c>
       <c r="G75" t="n">
-        <v>16.67</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Truist Financial Corporation</t>
+          <t>Carnival Corporation &amp; plc</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>TFC</t>
+          <t>CCL</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>35.39</v>
+        <v>17.99</v>
       </c>
       <c r="D76" t="n">
-        <v>-0.25</v>
+        <v>0.12</v>
       </c>
       <c r="E76" t="n">
-        <v>16.366</v>
+        <v>12.883</v>
       </c>
       <c r="F76" t="n">
-        <v>46.198</v>
-      </c>
-      <c r="G76" t="inlineStr"/>
+        <v>24.374</v>
+      </c>
+      <c r="G76" t="n">
+        <v>11.61</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Hudbay Minerals Inc.</t>
+          <t>Freeport-McMoRan Inc.</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>HBM</t>
+          <t>FCX</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>6.9</v>
+        <v>32.9</v>
       </c>
       <c r="D77" t="n">
-        <v>0.38</v>
+        <v>-0.42</v>
       </c>
       <c r="E77" t="n">
-        <v>16.354</v>
+        <v>16.985</v>
       </c>
       <c r="F77" t="n">
-        <v>2.725</v>
+        <v>47.28</v>
       </c>
       <c r="G77" t="n">
-        <v>34.5</v>
+        <v>25.31</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Viatris Inc.</t>
+          <t>Halliburton Company</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>VTRS</t>
+          <t>HAL</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>7.54</v>
+        <v>22.53</v>
       </c>
       <c r="D78" t="n">
-        <v>0.28</v>
+        <v>1.1</v>
       </c>
       <c r="E78" t="n">
-        <v>16.248</v>
+        <v>18.168</v>
       </c>
       <c r="F78" t="n">
-        <v>9</v>
-      </c>
-      <c r="G78" t="inlineStr"/>
+        <v>19.42</v>
+      </c>
+      <c r="G78" t="n">
+        <v>7.96</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Fortuna Mining Corp.</t>
+          <t>Haleon plc</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>FSM</t>
+          <t>HLN</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>6.48</v>
+        <v>10.22</v>
       </c>
       <c r="D79" t="n">
-        <v>0.25</v>
+        <v>0.06</v>
       </c>
       <c r="E79" t="n">
-        <v>16.867</v>
+        <v>16.645</v>
       </c>
       <c r="F79" t="n">
-        <v>1.983</v>
+        <v>46.109</v>
       </c>
       <c r="G79" t="n">
-        <v>15.8</v>
+        <v>24.93</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Under Armour, Inc.</t>
+          <t>IAMGOLD Corporation</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>UAA</t>
+          <t>IAG</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5.19</v>
+        <v>7.83</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.01</v>
+        <v>-0.26</v>
       </c>
       <c r="E80" t="n">
-        <v>15.699</v>
+        <v>17.077</v>
       </c>
       <c r="F80" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="G80" t="inlineStr"/>
+        <v>4.503</v>
+      </c>
+      <c r="G80" t="n">
+        <v>5.22</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Hims &amp; Hers Health, Inc.</t>
+          <t>Verizon Communications Inc.</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>HIMS</t>
+          <t>VZ</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>27.23</v>
+        <v>44.04</v>
       </c>
       <c r="D81" t="n">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="E81" t="n">
-        <v>15.722</v>
+        <v>16.099</v>
       </c>
       <c r="F81" t="n">
-        <v>6.05</v>
+        <v>188.932</v>
       </c>
       <c r="G81" t="n">
-        <v>51.38</v>
+        <v>10.64</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Meta Platforms, Inc.</t>
+          <t>Hecla Mining Company</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>META</t>
+          <t>HL</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>543.5700000000001</v>
+        <v>5.81</v>
       </c>
       <c r="D82" t="n">
-        <v>-2.72</v>
+        <v>-0.18</v>
       </c>
       <c r="E82" t="n">
-        <v>17.507</v>
+        <v>15.329</v>
       </c>
       <c r="F82" t="n">
-        <v>1377</v>
+        <v>3.674</v>
       </c>
       <c r="G82" t="n">
-        <v>22.78</v>
+        <v>96.83</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>BP p.l.c.</t>
+          <t>Nokia Oyj</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>NOK</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>26.59</v>
+        <v>5.11</v>
       </c>
       <c r="D83" t="n">
-        <v>0.36</v>
+        <v>0.03</v>
       </c>
       <c r="E83" t="n">
-        <v>15.687</v>
+        <v>16.342</v>
       </c>
       <c r="F83" t="n">
-        <v>69.65600000000001</v>
+        <v>27.751</v>
       </c>
       <c r="G83" t="n">
-        <v>189.93</v>
+        <v>14.6</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Haleon plc</t>
+          <t>Under Armour, Inc.</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>HLN</t>
+          <t>UAA</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>10.06</v>
+        <v>5.83</v>
       </c>
       <c r="D84" t="n">
-        <v>0.43</v>
+        <v>0.27</v>
       </c>
       <c r="E84" t="n">
-        <v>16.215</v>
+        <v>16.449</v>
       </c>
       <c r="F84" t="n">
-        <v>45.414</v>
-      </c>
-      <c r="G84" t="n">
-        <v>24.54</v>
-      </c>
+        <v>2.432</v>
+      </c>
+      <c r="G84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Joby Aviation, Inc.</t>
+          <t>Grab Holdings Limited</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>JOBY</t>
+          <t>GRAB</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5.93</v>
+        <v>4.11</v>
       </c>
       <c r="D85" t="n">
-        <v>-0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E85" t="n">
-        <v>15.662</v>
+        <v>16.218</v>
       </c>
       <c r="F85" t="n">
-        <v>4.672</v>
+        <v>16.745</v>
       </c>
       <c r="G85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Chevron Corporation</t>
+          <t>CVS Health Corporation</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>CVX</t>
+          <t>CVS</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>135.63</v>
+        <v>67.29000000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.65</v>
+        <v>-1.26</v>
       </c>
       <c r="E86" t="n">
-        <v>15.412</v>
+        <v>14.042</v>
       </c>
       <c r="F86" t="n">
-        <v>236.908</v>
+        <v>84.946</v>
       </c>
       <c r="G86" t="n">
-        <v>13.95</v>
+        <v>18.39</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>The Coca-Cola Company</t>
+          <t>Rivian Automotive, Inc.</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>RIVN</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>71.43000000000001</v>
+        <v>11.6</v>
       </c>
       <c r="D87" t="n">
-        <v>0.67</v>
+        <v>0.11</v>
       </c>
       <c r="E87" t="n">
-        <v>15.421</v>
+        <v>16.011</v>
       </c>
       <c r="F87" t="n">
-        <v>307.404</v>
-      </c>
-      <c r="G87" t="n">
-        <v>29.04</v>
-      </c>
+        <v>13.116</v>
+      </c>
+      <c r="G87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Rocket Lab USA, Inc.</t>
+          <t>Cisco Systems, Inc.</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>RKLB</t>
+          <t>CSCO</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>19.63</v>
+        <v>55.76</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
       </c>
       <c r="E88" t="n">
-        <v>15.294</v>
+        <v>15.81</v>
       </c>
       <c r="F88" t="n">
-        <v>8.903</v>
-      </c>
-      <c r="G88" t="inlineStr"/>
+        <v>221.829</v>
+      </c>
+      <c r="G88" t="n">
+        <v>24.46</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>IonQ, Inc.</t>
+          <t>Schlumberger Limited</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>IONQ</t>
+          <t>SLB</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>26.09</v>
+        <v>35.11</v>
       </c>
       <c r="D89" t="n">
-        <v>0.2</v>
+        <v>0.96</v>
       </c>
       <c r="E89" t="n">
-        <v>15.741</v>
+        <v>14.504</v>
       </c>
       <c r="F89" t="n">
-        <v>6.232</v>
-      </c>
-      <c r="G89" t="inlineStr"/>
+        <v>47.745</v>
+      </c>
+      <c r="G89" t="n">
+        <v>11.29</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Avantor, Inc.</t>
+          <t>ADT Inc.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>AVTR</t>
+          <t>ADT</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>15.22</v>
+        <v>7.87</v>
       </c>
       <c r="D90" t="n">
-        <v>0.52</v>
+        <v>-0.01</v>
       </c>
       <c r="E90" t="n">
-        <v>18.933</v>
+        <v>15.637</v>
       </c>
       <c r="F90" t="n">
-        <v>10.371</v>
+        <v>6.666</v>
       </c>
       <c r="G90" t="n">
-        <v>14.63</v>
+        <v>11.92</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Valley National Bancorp</t>
+          <t>Algonquin Power &amp; Utilities Corp.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>VLY</t>
+          <t>AQN</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>7.87</v>
+        <v>5.41</v>
       </c>
       <c r="D91" t="n">
-        <v>-0.17</v>
+        <v>0.14</v>
       </c>
       <c r="E91" t="n">
-        <v>15.616</v>
+        <v>15.594</v>
       </c>
       <c r="F91" t="n">
-        <v>4.407</v>
+        <v>4.152</v>
       </c>
       <c r="G91" t="n">
-        <v>11.41</v>
+        <v>77.29000000000001</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Archer Aviation Inc.</t>
+          <t>Truist Financial Corporation</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ACHR</t>
+          <t>TFC</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>7.03</v>
+        <v>35.9</v>
       </c>
       <c r="D92" t="n">
-        <v>0.01</v>
+        <v>-0.1</v>
       </c>
       <c r="E92" t="n">
-        <v>15.497</v>
+        <v>15.14</v>
       </c>
       <c r="F92" t="n">
-        <v>3.814</v>
+        <v>47.012</v>
       </c>
       <c r="G92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Vodafone Group Public Limited Company</t>
+          <t>Peloton Interactive, Inc.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>VOD</t>
+          <t>PTON</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>8.73</v>
+        <v>5.39</v>
       </c>
       <c r="D93" t="n">
-        <v>0.28</v>
+        <v>-0.23</v>
       </c>
       <c r="E93" t="n">
-        <v>15.03</v>
+        <v>14.9</v>
       </c>
       <c r="F93" t="n">
-        <v>21.775</v>
-      </c>
-      <c r="G93" t="n">
-        <v>9.09</v>
-      </c>
+        <v>2.102</v>
+      </c>
+      <c r="G93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>TAL Education Group</t>
+          <t>PG&amp;E Corporation</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>TAL</t>
+          <t>PCG</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>9.6</v>
+        <v>17.23</v>
       </c>
       <c r="D94" t="n">
-        <v>-0.36</v>
+        <v>0.05</v>
       </c>
       <c r="E94" t="n">
-        <v>14.686</v>
+        <v>15.36</v>
       </c>
       <c r="F94" t="n">
-        <v>5.801</v>
+        <v>37.866</v>
       </c>
       <c r="G94" t="n">
-        <v>50.53</v>
+        <v>14.98</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Alight, Inc.</t>
+          <t>Aurora Innovation, Inc.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ALIT</t>
+          <t>AUR</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4.96</v>
+        <v>6.11</v>
       </c>
       <c r="D95" t="n">
-        <v>-0.03</v>
+        <v>0.24</v>
       </c>
       <c r="E95" t="n">
-        <v>14.63</v>
+        <v>14.703</v>
       </c>
       <c r="F95" t="n">
-        <v>2.744</v>
+        <v>10.796</v>
       </c>
       <c r="G95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sibanye Stillwater Limited</t>
+          <t>The Walt Disney Company</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>SBSW</t>
+          <t>DIS</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4.38</v>
+        <v>84.81</v>
       </c>
       <c r="D96" t="n">
-        <v>0.49</v>
+        <v>2.04</v>
       </c>
       <c r="E96" t="n">
-        <v>14.582</v>
+        <v>14.719</v>
       </c>
       <c r="F96" t="n">
-        <v>3.099</v>
-      </c>
-      <c r="G96" t="inlineStr"/>
+        <v>153.319</v>
+      </c>
+      <c r="G96" t="n">
+        <v>27.54</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Norwegian Cruise Line Holdings Ltd.</t>
+          <t>Citigroup Inc.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>NCLH</t>
+          <t>C</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>16.32</v>
+        <v>63.25</v>
       </c>
       <c r="D97" t="n">
-        <v>-0.37</v>
+        <v>1.15</v>
       </c>
       <c r="E97" t="n">
-        <v>14.527</v>
+        <v>14.379</v>
       </c>
       <c r="F97" t="n">
-        <v>7.235</v>
+        <v>118.132</v>
       </c>
       <c r="G97" t="n">
-        <v>8.630000000000001</v>
+        <v>9.99</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Infosys Limited</t>
+          <t>Meta Platforms, Inc.</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>INFY</t>
+          <t>META</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>16.88</v>
+        <v>501.48</v>
       </c>
       <c r="D98" t="n">
-        <v>-0.1</v>
+        <v>-0.83</v>
       </c>
       <c r="E98" t="n">
-        <v>15.133</v>
+        <v>14.479</v>
       </c>
       <c r="F98" t="n">
-        <v>69.935</v>
+        <v>1271</v>
       </c>
       <c r="G98" t="n">
-        <v>21.37</v>
+        <v>21.01</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Blue Owl Capital Inc.</t>
+          <t>Newmont Corporation</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>OWL</t>
+          <t>NEM</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>17.01</v>
+        <v>55.08</v>
       </c>
       <c r="D99" t="n">
-        <v>-0.18</v>
+        <v>-0.87</v>
       </c>
       <c r="E99" t="n">
-        <v>15.574</v>
+        <v>14.095</v>
       </c>
       <c r="F99" t="n">
-        <v>25.98</v>
+        <v>62.089</v>
       </c>
       <c r="G99" t="n">
-        <v>85.05</v>
+        <v>19.26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>KeyCorp</t>
+          <t>SoundHound AI, Inc.</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>KEY</t>
+          <t>SOUN</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>13.73</v>
+        <v>7.82</v>
       </c>
       <c r="D100" t="n">
-        <v>-0.01</v>
+        <v>0.06</v>
       </c>
       <c r="E100" t="n">
-        <v>15.718</v>
+        <v>14.313</v>
       </c>
       <c r="F100" t="n">
-        <v>15.044</v>
+        <v>3.12</v>
       </c>
       <c r="G100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ASE Technology Holding Co., Ltd.</t>
+          <t>Bristol-Myers Squibb Company</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ASX</t>
+          <t>BMY</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>8.300000000000001</v>
+        <v>49.23</v>
       </c>
       <c r="D101" t="n">
-        <v>0.44</v>
+        <v>-0.13</v>
       </c>
       <c r="E101" t="n">
-        <v>13.718</v>
+        <v>14.243</v>
       </c>
       <c r="F101" t="n">
-        <v>18.026</v>
-      </c>
-      <c r="G101" t="n">
-        <v>18.86</v>
-      </c>
+        <v>100.171</v>
+      </c>
+      <c r="G101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Riot Platforms, Inc.</t>
+          <t>The Trade Desk, Inc.</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>RIOT</t>
+          <t>TTD</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>7.06</v>
+        <v>50.26</v>
       </c>
       <c r="D102" t="n">
-        <v>0.27</v>
+        <v>1.81</v>
       </c>
       <c r="E102" t="n">
-        <v>14.311</v>
+        <v>13.946</v>
       </c>
       <c r="F102" t="n">
-        <v>2.472</v>
+        <v>24.706</v>
       </c>
       <c r="G102" t="n">
-        <v>20.76</v>
+        <v>64.44</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Merck &amp; Co., Inc.</t>
+          <t>Lam Research Corporation</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>MRK</t>
+          <t>LRCX</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>79.18000000000001</v>
+        <v>63.76</v>
       </c>
       <c r="D103" t="n">
-        <v>1.63</v>
+        <v>-1.38</v>
       </c>
       <c r="E103" t="n">
-        <v>13.397</v>
+        <v>13.84</v>
       </c>
       <c r="F103" t="n">
-        <v>199.248</v>
+        <v>81.846</v>
       </c>
       <c r="G103" t="n">
-        <v>11.75</v>
+        <v>19.38</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Uber Technologies, Inc.</t>
+          <t>JD.com, Inc.</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>UBER</t>
+          <t>JD</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>72.28</v>
+        <v>34.72</v>
       </c>
       <c r="D104" t="n">
-        <v>1.34</v>
+        <v>-0.61</v>
       </c>
       <c r="E104" t="n">
-        <v>13.097</v>
+        <v>13.799</v>
       </c>
       <c r="F104" t="n">
-        <v>151.156</v>
+        <v>54.882</v>
       </c>
       <c r="G104" t="n">
-        <v>15.85</v>
+        <v>9.539999999999999</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Kinder Morgan, Inc.</t>
+          <t>Dun &amp; Bradstreet Holdings, Inc.</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>KMI</t>
+          <t>DNB</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>26.47</v>
+        <v>8.75</v>
       </c>
       <c r="D105" t="n">
-        <v>0.68</v>
+        <v>0.03</v>
       </c>
       <c r="E105" t="n">
-        <v>13.189</v>
+        <v>13.861</v>
       </c>
       <c r="F105" t="n">
-        <v>58.818</v>
-      </c>
-      <c r="G105" t="n">
-        <v>22.62</v>
-      </c>
+        <v>3.89</v>
+      </c>
+      <c r="G105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>PayPal Holdings, Inc.</t>
+          <t>Keurig Dr Pepper Inc.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>PYPL</t>
+          <t>KDP</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>62.59</v>
+        <v>35.4</v>
       </c>
       <c r="D106" t="n">
-        <v>2.03</v>
+        <v>0.29</v>
       </c>
       <c r="E106" t="n">
-        <v>12.862</v>
+        <v>13.756</v>
       </c>
       <c r="F106" t="n">
-        <v>61.917</v>
+        <v>48.029</v>
       </c>
       <c r="G106" t="n">
-        <v>15.69</v>
+        <v>33.71</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Chipotle Mexican Grill, Inc.</t>
+          <t>United Microelectronics Corporation</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>CMG</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>49.76</v>
+        <v>6.81</v>
       </c>
       <c r="D107" t="n">
-        <v>-0.51</v>
+        <v>-0.04</v>
       </c>
       <c r="E107" t="n">
-        <v>12.901</v>
+        <v>13.567</v>
       </c>
       <c r="F107" t="n">
-        <v>67.44199999999999</v>
+        <v>17.166</v>
       </c>
       <c r="G107" t="n">
-        <v>44.83</v>
+        <v>11.95</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>DiDi Global Inc.</t>
+          <t>Cleveland-Cliffs Inc.</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>DIDIY</t>
+          <t>CLF</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>3.72</v>
+        <v>7.3</v>
       </c>
       <c r="D108" t="n">
-        <v>0.02</v>
+        <v>0.12</v>
       </c>
       <c r="E108" t="n">
-        <v>12.704</v>
+        <v>13.979</v>
       </c>
       <c r="F108" t="n">
-        <v>18.013</v>
-      </c>
-      <c r="G108" t="n">
-        <v>19.58</v>
-      </c>
+        <v>3.61</v>
+      </c>
+      <c r="G108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Delta Air Lines, Inc.</t>
+          <t>Strategy Incorporated</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>DAL</t>
+          <t>MSTR</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>40.88</v>
+        <v>317.2</v>
       </c>
       <c r="D109" t="n">
-        <v>1.52</v>
+        <v>5.54</v>
       </c>
       <c r="E109" t="n">
-        <v>13.7</v>
+        <v>13.431</v>
       </c>
       <c r="F109" t="n">
-        <v>26.693</v>
-      </c>
-      <c r="G109" t="n">
-        <v>7.25</v>
-      </c>
+        <v>84.736</v>
+      </c>
+      <c r="G109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>The Charles Schwab Corporation</t>
+          <t>Occidental Petroleum Corporation</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>SCHW</t>
+          <t>OXY</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>76.95999999999999</v>
+        <v>39.71</v>
       </c>
       <c r="D110" t="n">
-        <v>3.11</v>
+        <v>1.26</v>
       </c>
       <c r="E110" t="n">
-        <v>14.617</v>
+        <v>13.282</v>
       </c>
       <c r="F110" t="n">
-        <v>139.753</v>
+        <v>38.982</v>
       </c>
       <c r="G110" t="n">
-        <v>25.74</v>
+        <v>17.57</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Aurora Innovation, Inc.</t>
+          <t>Permian Resources Corporation</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>AUR</t>
+          <t>PR</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>6.19</v>
+        <v>12.03</v>
       </c>
       <c r="D111" t="n">
-        <v>-0.2</v>
+        <v>0.53</v>
       </c>
       <c r="E111" t="n">
-        <v>12.301</v>
+        <v>12.112</v>
       </c>
       <c r="F111" t="n">
-        <v>10.937</v>
-      </c>
-      <c r="G111" t="inlineStr"/>
+        <v>9.734</v>
+      </c>
+      <c r="G111" t="n">
+        <v>8.300000000000001</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>DraftKings Inc.</t>
+          <t>Alcoa Corporation</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>DKNG</t>
+          <t>AA</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>34.22</v>
+        <v>23.32</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.51</v>
+        <v>-1.75</v>
       </c>
       <c r="E112" t="n">
-        <v>12.997</v>
+        <v>13.596</v>
       </c>
       <c r="F112" t="n">
-        <v>17.108</v>
-      </c>
-      <c r="G112" t="inlineStr"/>
+        <v>6.037</v>
+      </c>
+      <c r="G112" t="n">
+        <v>6.24</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CSX Corporation</t>
+          <t>Coeur Mining, Inc.</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>CSX</t>
+          <t>CDE</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>28.01</v>
+        <v>6.03</v>
       </c>
       <c r="D113" t="n">
-        <v>0.19</v>
+        <v>-0.24</v>
       </c>
       <c r="E113" t="n">
-        <v>14.222</v>
+        <v>13.104</v>
       </c>
       <c r="F113" t="n">
-        <v>52.792</v>
+        <v>3.854</v>
       </c>
       <c r="G113" t="n">
-        <v>15.65</v>
+        <v>40.2</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SoundHound AI, Inc.</t>
+          <t>Lyft, Inc.</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>SOUN</t>
+          <t>LYFT</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>8.279999999999999</v>
+        <v>11.16</v>
       </c>
       <c r="D114" t="n">
-        <v>0.08</v>
+        <v>0.32</v>
       </c>
       <c r="E114" t="n">
-        <v>12.542</v>
+        <v>12.559</v>
       </c>
       <c r="F114" t="n">
-        <v>3.303</v>
-      </c>
-      <c r="G114" t="inlineStr"/>
+        <v>4.665</v>
+      </c>
+      <c r="G114" t="n">
+        <v>186</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>NextEra Energy, Inc.</t>
+          <t>U.S. Bancorp</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>NEE</t>
+          <t>USB</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>65.81</v>
+        <v>38.2</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.91</v>
+        <v>0.38</v>
       </c>
       <c r="E115" t="n">
-        <v>12.212</v>
+        <v>12.538</v>
       </c>
       <c r="F115" t="n">
-        <v>135.475</v>
+        <v>59.592</v>
       </c>
       <c r="G115" t="n">
-        <v>19.53</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>ADT Inc.</t>
+          <t>Recursion Pharmaceuticals, Inc.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ADT</t>
+          <t>RXRX</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>7.82</v>
+        <v>5.5</v>
       </c>
       <c r="D116" t="n">
-        <v>0.13</v>
+        <v>0.18</v>
       </c>
       <c r="E116" t="n">
-        <v>12.721</v>
+        <v>12.528</v>
       </c>
       <c r="F116" t="n">
-        <v>6.624</v>
-      </c>
-      <c r="G116" t="n">
-        <v>11.85</v>
-      </c>
+        <v>2.211</v>
+      </c>
+      <c r="G116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Halliburton Company</t>
+          <t>Marvell Technology, Inc.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>MRVL</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>21.07</v>
+        <v>51.7</v>
       </c>
       <c r="D117" t="n">
-        <v>0.8</v>
+        <v>-0.23</v>
       </c>
       <c r="E117" t="n">
-        <v>11.835</v>
+        <v>12.242</v>
       </c>
       <c r="F117" t="n">
-        <v>18.162</v>
-      </c>
-      <c r="G117" t="n">
-        <v>7.45</v>
-      </c>
+        <v>44.776</v>
+      </c>
+      <c r="G117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CNH Industrial N.V.</t>
+          <t>Trump Media &amp; Technology Group Corp.</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>CNH</t>
+          <t>DJT</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>11.54</v>
+        <v>22.04</v>
       </c>
       <c r="D118" t="n">
-        <v>0.35</v>
+        <v>2.3</v>
       </c>
       <c r="E118" t="n">
-        <v>11.813</v>
+        <v>11.861</v>
       </c>
       <c r="F118" t="n">
-        <v>14.402</v>
-      </c>
-      <c r="G118" t="n">
-        <v>11.66</v>
-      </c>
+        <v>4.862</v>
+      </c>
+      <c r="G118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Lam Research Corporation</t>
+          <t>Rigetti Computing, Inc.</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>LRCX</t>
+          <t>RGTI</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>67.48</v>
+        <v>8.32</v>
       </c>
       <c r="D119" t="n">
-        <v>1.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E119" t="n">
-        <v>14.06</v>
+        <v>11.818</v>
       </c>
       <c r="F119" t="n">
-        <v>86.621</v>
-      </c>
-      <c r="G119" t="n">
-        <v>20.51</v>
-      </c>
+        <v>2.378</v>
+      </c>
+      <c r="G119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Regions Financial Corporation</t>
+          <t>General Motors Company</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>GM</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>18.97</v>
+        <v>44.57</v>
       </c>
       <c r="D120" t="n">
-        <v>-0.03</v>
+        <v>0.35</v>
       </c>
       <c r="E120" t="n">
-        <v>13.081</v>
+        <v>8.102</v>
       </c>
       <c r="F120" t="n">
-        <v>17.177</v>
+        <v>44.347</v>
       </c>
       <c r="G120" t="n">
-        <v>9.83</v>
+        <v>7</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Charles River Laboratories International, Inc.</t>
+          <t>Joby Aviation, Inc.</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>CRL</t>
+          <t>JOBY</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>99.75</v>
+        <v>5.89</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E121" t="n">
-        <v>11.601</v>
+        <v>11.029</v>
       </c>
       <c r="F121" t="n">
-        <v>4.899</v>
-      </c>
-      <c r="G121" t="n">
-        <v>498.75</v>
-      </c>
+        <v>4.64</v>
+      </c>
+      <c r="G121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>KE Holdings Inc.</t>
+          <t>Shopify Inc. Class A Subordinate Voting Shares</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>BEKE</t>
+          <t>SHOP</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>18.44</v>
+        <v>83.65000000000001</v>
       </c>
       <c r="D122" t="n">
-        <v>0.36</v>
+        <v>-0.31</v>
       </c>
       <c r="E122" t="n">
-        <v>12.415</v>
+        <v>11.526</v>
       </c>
       <c r="F122" t="n">
-        <v>22.441</v>
+        <v>108.384</v>
       </c>
       <c r="G122" t="n">
-        <v>39.23</v>
+        <v>53.97</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Mitsubishi UFJ Financial Group, Inc.</t>
+          <t>Southwest Airlines Co.</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>MUFG</t>
+          <t>LUV</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>11.59</v>
+        <v>24.74</v>
       </c>
       <c r="D123" t="n">
-        <v>0.49</v>
+        <v>-0.12</v>
       </c>
       <c r="E123" t="n">
-        <v>11.887</v>
+        <v>9.629</v>
       </c>
       <c r="F123" t="n">
-        <v>133.36</v>
+        <v>14.199</v>
       </c>
       <c r="G123" t="n">
-        <v>10.26</v>
+        <v>32.55</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Annaly Capital Management, Inc.</t>
+          <t>The Kroger Co.</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>NLY</t>
+          <t>KR</t>
         </is>
       </c>
       <c r="C124" t="n">
-        <v>17.5</v>
+        <v>71.22</v>
       </c>
       <c r="D124" t="n">
-        <v>0.2</v>
+        <v>2.21</v>
       </c>
       <c r="E124" t="n">
-        <v>11.378</v>
+        <v>11.454</v>
       </c>
       <c r="F124" t="n">
-        <v>10.457</v>
+        <v>47.069</v>
       </c>
       <c r="G124" t="n">
-        <v>10.8</v>
+        <v>19.41</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Keurig Dr Pepper Inc.</t>
+          <t>Energy Transfer LP</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>KDP</t>
+          <t>ET</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>35.16</v>
+        <v>17.27</v>
       </c>
       <c r="D125" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
       <c r="E125" t="n">
-        <v>11.195</v>
+        <v>11.047</v>
       </c>
       <c r="F125" t="n">
-        <v>47.703</v>
+        <v>59.257</v>
       </c>
       <c r="G125" t="n">
-        <v>33.49</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>United States Steel Corporation</t>
+          <t>Fifth Third Bancorp</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>FITB</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>40.06</v>
+        <v>34.15</v>
       </c>
       <c r="D126" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-0.25</v>
       </c>
       <c r="E126" t="n">
-        <v>11.173</v>
+        <v>11.189</v>
       </c>
       <c r="F126" t="n">
-        <v>9.07</v>
+        <v>22.787</v>
       </c>
       <c r="G126" t="n">
-        <v>25.52</v>
+        <v>10.84</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>United Microelectronics Corporation</t>
+          <t>NextEra Energy, Inc.</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>NEE</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>6.87</v>
+        <v>66.31</v>
       </c>
       <c r="D127" t="n">
-        <v>0.33</v>
+        <v>0.67</v>
       </c>
       <c r="E127" t="n">
-        <v>13.112</v>
+        <v>11.211</v>
       </c>
       <c r="F127" t="n">
-        <v>17.255</v>
+        <v>136.504</v>
       </c>
       <c r="G127" t="n">
-        <v>12.05</v>
+        <v>19.68</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Devon Energy Corporation</t>
+          <t>KE Holdings Inc.</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>DVN</t>
+          <t>BEKE</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>28.23</v>
+        <v>19.03</v>
       </c>
       <c r="D128" t="n">
-        <v>0.48</v>
+        <v>-0.33</v>
       </c>
       <c r="E128" t="n">
-        <v>12.01</v>
+        <v>11.288</v>
       </c>
       <c r="F128" t="n">
-        <v>18.309</v>
+        <v>24.129</v>
       </c>
       <c r="G128" t="n">
-        <v>6.19</v>
+        <v>40.49</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>The Gap, Inc.</t>
+          <t>Johnson &amp; Johnson</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>GAP</t>
+          <t>JNJ</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>18.61</v>
+        <v>157.47</v>
       </c>
       <c r="D129" t="n">
-        <v>-0.39</v>
+        <v>3.56</v>
       </c>
       <c r="E129" t="n">
-        <v>11.991</v>
+        <v>8.871</v>
       </c>
       <c r="F129" t="n">
-        <v>7.009</v>
+        <v>379.479</v>
       </c>
       <c r="G129" t="n">
-        <v>8.460000000000001</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Walgreens Boots Alliance, Inc.</t>
+          <t>United Airlines Holdings, Inc.</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>UAL</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>10.78</v>
+        <v>66.3</v>
       </c>
       <c r="D130" t="n">
-        <v>0.09</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="E130" t="n">
-        <v>12.245</v>
+        <v>10.883</v>
       </c>
       <c r="F130" t="n">
-        <v>9.321999999999999</v>
-      </c>
-      <c r="G130" t="inlineStr"/>
+        <v>21.654</v>
+      </c>
+      <c r="G130" t="n">
+        <v>6.03</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>NexGen Energy Ltd.</t>
+          <t>CEMEX, S.A.B. de C.V.</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>NXE</t>
+          <t>CX</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>4.64</v>
+        <v>5.4</v>
       </c>
       <c r="D131" t="n">
-        <v>0.23</v>
+        <v>0.2</v>
       </c>
       <c r="E131" t="n">
-        <v>10.877</v>
+        <v>10.946</v>
       </c>
       <c r="F131" t="n">
-        <v>2.641</v>
-      </c>
-      <c r="G131" t="inlineStr"/>
+        <v>7.834</v>
+      </c>
+      <c r="G131" t="n">
+        <v>8.85</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Teva Pharmaceutical Industries Limited</t>
+          <t>Eli Lilly and Company</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>TEVA</t>
+          <t>LLY</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>13.46</v>
+        <v>839.96</v>
       </c>
       <c r="D132" t="n">
-        <v>0.64</v>
+        <v>105.06</v>
       </c>
       <c r="E132" t="n">
-        <v>10.922</v>
+        <v>10.092</v>
       </c>
       <c r="F132" t="n">
-        <v>15.438</v>
-      </c>
-      <c r="G132" t="inlineStr"/>
+        <v>754.275</v>
+      </c>
+      <c r="G132" t="n">
+        <v>71.91</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>The AES Corporation</t>
+          <t>UiPath Inc.</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>AES</t>
+          <t>PATH</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>10.3</v>
+        <v>10.45</v>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E133" t="n">
-        <v>10.692</v>
+        <v>9.129</v>
       </c>
       <c r="F133" t="n">
-        <v>7.333</v>
-      </c>
-      <c r="G133" t="n">
-        <v>4.35</v>
-      </c>
+        <v>5.763</v>
+      </c>
+      <c r="G133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Novo Nordisk A/S</t>
+          <t>Mondelez International, Inc.</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>NVO</t>
+          <t>MDLZ</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>64.73</v>
+        <v>67.31999999999999</v>
       </c>
       <c r="D134" t="n">
-        <v>3.52</v>
+        <v>0.84</v>
       </c>
       <c r="E134" t="n">
-        <v>10.701</v>
+        <v>10.772</v>
       </c>
       <c r="F134" t="n">
-        <v>281.286</v>
+        <v>87.21599999999999</v>
       </c>
       <c r="G134" t="n">
-        <v>19.5</v>
+        <v>19.68</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>STMicroelectronics N.V.</t>
+          <t>Viatris Inc.</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>STM</t>
+          <t>VTRS</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>20.45</v>
+        <v>7.56</v>
       </c>
       <c r="D135" t="n">
-        <v>1.52</v>
+        <v>0.17</v>
       </c>
       <c r="E135" t="n">
-        <v>10.712</v>
+        <v>10.714</v>
       </c>
       <c r="F135" t="n">
-        <v>18.28</v>
-      </c>
-      <c r="G135" t="n">
-        <v>12.32</v>
-      </c>
+        <v>9.023999999999999</v>
+      </c>
+      <c r="G135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Bristol-Myers Squibb Company</t>
+          <t>V.F. Corporation</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>BMY</t>
+          <t>VFC</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>50.71</v>
+        <v>10.45</v>
       </c>
       <c r="D136" t="n">
-        <v>0.25</v>
+        <v>0.14</v>
       </c>
       <c r="E136" t="n">
-        <v>10.746</v>
+        <v>10.708</v>
       </c>
       <c r="F136" t="n">
-        <v>103.183</v>
+        <v>4.071</v>
       </c>
       <c r="G136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Southwest Airlines Co.</t>
+          <t>PDD Holdings Inc.</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>LUV</t>
+          <t>PDD</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>26.19</v>
+        <v>93.69</v>
       </c>
       <c r="D137" t="n">
-        <v>0.4</v>
+        <v>1.34</v>
       </c>
       <c r="E137" t="n">
-        <v>10.597</v>
+        <v>10.508</v>
       </c>
       <c r="F137" t="n">
-        <v>15.031</v>
+        <v>130.114</v>
       </c>
       <c r="G137" t="n">
-        <v>34.46</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Gerdau S.A.</t>
+          <t>Equinox Gold Corp.</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>GGB</t>
+          <t>EQX</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2.47</v>
+        <v>7.01</v>
       </c>
       <c r="D138" t="n">
-        <v>0.04</v>
+        <v>-0.27</v>
       </c>
       <c r="E138" t="n">
-        <v>10.701</v>
+        <v>10.64</v>
       </c>
       <c r="F138" t="n">
-        <v>5.005</v>
+        <v>3.198</v>
       </c>
       <c r="G138" t="n">
-        <v>6.68</v>
+        <v>9.35</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>GameStop Corp.</t>
+          <t>Abbott Laboratories</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>GME</t>
+          <t>ABT</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>26.4</v>
+        <v>130.98</v>
       </c>
       <c r="D139" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="E139" t="n">
-        <v>10.764</v>
+        <v>10.459</v>
       </c>
       <c r="F139" t="n">
-        <v>11.803</v>
+        <v>227.161</v>
       </c>
       <c r="G139" t="n">
-        <v>80</v>
+        <v>17.14</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Algonquin Power &amp; Utilities Corp.</t>
+          <t>ASE Technology Holding Co., Ltd.</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>AQN</t>
+          <t>ASX</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>5.04</v>
+        <v>8.08</v>
       </c>
       <c r="D140" t="n">
-        <v>0.16</v>
+        <v>-0.13</v>
       </c>
       <c r="E140" t="n">
-        <v>10.598</v>
+        <v>10.624</v>
       </c>
       <c r="F140" t="n">
-        <v>3.868</v>
+        <v>17.548</v>
       </c>
       <c r="G140" t="n">
-        <v>72</v>
+        <v>18.36</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Harmony Gold Mining Company Limited</t>
+          <t>Alight, Inc.</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>HMY</t>
+          <t>ALIT</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>17.16</v>
+        <v>4.99</v>
       </c>
       <c r="D141" t="n">
-        <v>1.04</v>
+        <v>-0.04</v>
       </c>
       <c r="E141" t="n">
-        <v>9.996</v>
+        <v>10.443</v>
       </c>
       <c r="F141" t="n">
-        <v>10.677</v>
-      </c>
-      <c r="G141" t="n">
-        <v>19.95</v>
-      </c>
+        <v>2.76</v>
+      </c>
+      <c r="G141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Corning Incorporated</t>
+          <t>Devon Energy Corporation</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>GLW</t>
+          <t>DVN</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>41.26</v>
+        <v>30.31</v>
       </c>
       <c r="D142" t="n">
-        <v>-0.43</v>
+        <v>1.01</v>
       </c>
       <c r="E142" t="n">
-        <v>10.194</v>
+        <v>10.348</v>
       </c>
       <c r="F142" t="n">
-        <v>35.351</v>
+        <v>19.658</v>
       </c>
       <c r="G142" t="n">
-        <v>71.14</v>
+        <v>6.65</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Kenvue Inc.</t>
+          <t>Vodafone Group Public Limited Company</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>KVUE</t>
+          <t>VOD</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>22.09</v>
+        <v>9.31</v>
       </c>
       <c r="D143" t="n">
-        <v>0.22</v>
+        <v>0.14</v>
       </c>
       <c r="E143" t="n">
-        <v>13.069</v>
+        <v>10.154</v>
       </c>
       <c r="F143" t="n">
-        <v>42.384</v>
+        <v>23.245</v>
       </c>
       <c r="G143" t="n">
-        <v>40.91</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>V.F. Corporation</t>
+          <t>The AES Corporation</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>VFC</t>
+          <t>AES</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>11.11</v>
+        <v>10.18</v>
       </c>
       <c r="D144" t="n">
-        <v>-0.33</v>
+        <v>0.22</v>
       </c>
       <c r="E144" t="n">
-        <v>10.86</v>
+        <v>10.473</v>
       </c>
       <c r="F144" t="n">
-        <v>4.328</v>
-      </c>
-      <c r="G144" t="inlineStr"/>
+        <v>7.247</v>
+      </c>
+      <c r="G144" t="n">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Moderna, Inc.</t>
+          <t>IonQ, Inc.</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>MRNA</t>
+          <t>IONQ</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>26.2</v>
+        <v>25.74</v>
       </c>
       <c r="D145" t="n">
-        <v>1.7</v>
+        <v>1.17</v>
       </c>
       <c r="E145" t="n">
-        <v>10.963</v>
+        <v>10.084</v>
       </c>
       <c r="F145" t="n">
-        <v>10.13</v>
+        <v>6.149</v>
       </c>
       <c r="G145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Dow Inc.</t>
+          <t>Albertsons Companies, Inc.</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>DOW</t>
+          <t>ACI</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>28.43</v>
+        <v>21.71</v>
       </c>
       <c r="D146" t="n">
-        <v>1.14</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E146" t="n">
-        <v>11.176</v>
+        <v>10.042</v>
       </c>
       <c r="F146" t="n">
-        <v>20.065</v>
+        <v>12.578</v>
       </c>
       <c r="G146" t="n">
-        <v>18.11</v>
+        <v>13.24</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>RLX Technology Inc.</t>
+          <t>Starbucks Corporation</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>RLX</t>
+          <t>SBUX</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>1.7</v>
+        <v>81.5</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.04</v>
+        <v>0.74</v>
       </c>
       <c r="E147" t="n">
-        <v>10.057</v>
+        <v>9.781000000000001</v>
       </c>
       <c r="F147" t="n">
-        <v>2.67</v>
+        <v>92.578</v>
       </c>
       <c r="G147" t="n">
-        <v>28.33</v>
+        <v>26.29</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Starbucks Corporation</t>
+          <t>Norwegian Cruise Line Holdings Ltd.</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>SBUX</t>
+          <t>NCLH</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>85.43000000000001</v>
+        <v>16.38</v>
       </c>
       <c r="D148" t="n">
-        <v>0.83</v>
+        <v>0.29</v>
       </c>
       <c r="E148" t="n">
-        <v>10.006</v>
+        <v>9.589</v>
       </c>
       <c r="F148" t="n">
-        <v>97.042</v>
+        <v>7.261</v>
       </c>
       <c r="G148" t="n">
-        <v>27.56</v>
+        <v>8.67</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>APA Corporation</t>
+          <t>Aegon Ltd.</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>APA</t>
+          <t>AEG</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>15.04</v>
+        <v>6.1</v>
       </c>
       <c r="D149" t="n">
-        <v>0.44</v>
+        <v>0.05</v>
       </c>
       <c r="E149" t="n">
-        <v>10.97</v>
+        <v>9.615</v>
       </c>
       <c r="F149" t="n">
-        <v>5.439</v>
+        <v>9.77</v>
       </c>
       <c r="G149" t="n">
-        <v>6.63</v>
+        <v>14.52</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Arista Networks Inc</t>
+          <t>JPMorgan Chase &amp; Co.</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ANET</t>
+          <t>JPM</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>72.67</v>
+        <v>231.96</v>
       </c>
       <c r="D150" t="n">
-        <v>0.02</v>
+        <v>2.35</v>
       </c>
       <c r="E150" t="n">
-        <v>11.224</v>
+        <v>7.864</v>
       </c>
       <c r="F150" t="n">
-        <v>91.646</v>
+        <v>644.64</v>
       </c>
       <c r="G150" t="n">
-        <v>32.59</v>
+        <v>11.38</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Certara, Inc.</t>
+          <t>Avantor, Inc.</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>CERT</t>
+          <t>AVTR</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>12.91</v>
+        <v>15.1</v>
       </c>
       <c r="D151" t="n">
-        <v>2.4</v>
+        <v>-0.15</v>
       </c>
       <c r="E151" t="n">
-        <v>9.651</v>
+        <v>9.420999999999999</v>
       </c>
       <c r="F151" t="n">
-        <v>2.085</v>
-      </c>
-      <c r="G151" t="inlineStr"/>
+        <v>10.289</v>
+      </c>
+      <c r="G151" t="n">
+        <v>14.52</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Genworth Financial, Inc.</t>
+          <t>DraftKings Inc.</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>GNW</t>
+          <t>DKNG</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>6.54</v>
+        <v>33.61</v>
       </c>
       <c r="D152" t="n">
-        <v>0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="E152" t="n">
-        <v>9.300000000000001</v>
+        <v>9.356999999999999</v>
       </c>
       <c r="F152" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="G152" t="n">
-        <v>9.34</v>
-      </c>
+        <v>16.804</v>
+      </c>
+      <c r="G152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Applied Materials, Inc.</t>
+          <t>Chipotle Mexican Grill, Inc.</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>AMAT</t>
+          <t>CMG</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>144.94</v>
+        <v>48.17</v>
       </c>
       <c r="D153" t="n">
-        <v>6.7</v>
+        <v>0.09</v>
       </c>
       <c r="E153" t="n">
-        <v>10.61</v>
+        <v>9.35</v>
       </c>
       <c r="F153" t="n">
-        <v>117.755</v>
+        <v>65.28700000000001</v>
       </c>
       <c r="G153" t="n">
-        <v>18.95</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Target Corporation</t>
+          <t>The Gap, Inc.</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>TGT</t>
+          <t>GAP</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>92.78</v>
+        <v>19.13</v>
       </c>
       <c r="D154" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.9</v>
       </c>
       <c r="E154" t="n">
-        <v>9.077999999999999</v>
+        <v>8.460000000000001</v>
       </c>
       <c r="F154" t="n">
-        <v>42.268</v>
+        <v>7.204</v>
       </c>
       <c r="G154" t="n">
-        <v>10.47</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>PG&amp;E Corporation</t>
+          <t>Cenovus Energy Inc.</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>PCG</t>
+          <t>CVE</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>16.92</v>
+        <v>12.1</v>
       </c>
       <c r="D155" t="n">
-        <v>0.45</v>
+        <v>0.44</v>
       </c>
       <c r="E155" t="n">
-        <v>9.06</v>
+        <v>9.641</v>
       </c>
       <c r="F155" t="n">
-        <v>37.185</v>
+        <v>22.064</v>
       </c>
       <c r="G155" t="n">
-        <v>14.71</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Morgan Stanley</t>
+          <t>The Boeing Company</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>BA</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>108.12</v>
+        <v>161.9</v>
       </c>
       <c r="D156" t="n">
-        <v>1.54</v>
+        <v>5.43</v>
       </c>
       <c r="E156" t="n">
-        <v>10.166</v>
+        <v>9.211</v>
       </c>
       <c r="F156" t="n">
-        <v>173.912</v>
-      </c>
-      <c r="G156" t="n">
-        <v>12.68</v>
-      </c>
+        <v>121.815</v>
+      </c>
+      <c r="G156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Affirm Holdings, Inc.</t>
+          <t>Rocket Lab USA, Inc.</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>AFRM</t>
+          <t>RKLB</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>40.49</v>
+        <v>19.74</v>
       </c>
       <c r="D157" t="n">
-        <v>-0.25</v>
+        <v>-0.24</v>
       </c>
       <c r="E157" t="n">
-        <v>9.16</v>
+        <v>9.077999999999999</v>
       </c>
       <c r="F157" t="n">
-        <v>12.961</v>
+        <v>8.952999999999999</v>
       </c>
       <c r="G157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Lyft, Inc.</t>
+          <t>PayPal Holdings, Inc.</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>LYFT</t>
+          <t>PYPL</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>11.03</v>
+        <v>61</v>
       </c>
       <c r="D158" t="n">
-        <v>0.1</v>
+        <v>0.76</v>
       </c>
       <c r="E158" t="n">
-        <v>9.756</v>
+        <v>9.016</v>
       </c>
       <c r="F158" t="n">
-        <v>4.611</v>
+        <v>60.344</v>
       </c>
       <c r="G158" t="n">
-        <v>183.83</v>
+        <v>15.29</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>QUALCOMM Incorporated</t>
+          <t>Oracle Corporation</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>QCOM</t>
+          <t>ORCL</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>139.25</v>
+        <v>128.62</v>
       </c>
       <c r="D159" t="n">
-        <v>4.85</v>
+        <v>-1.14</v>
       </c>
       <c r="E159" t="n">
-        <v>10.889</v>
+        <v>6.744</v>
       </c>
       <c r="F159" t="n">
-        <v>154.011</v>
+        <v>360.68</v>
       </c>
       <c r="G159" t="n">
-        <v>15.02</v>
+        <v>30.19</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>VICI Properties Inc.</t>
+          <t>BP p.l.c.</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>VICI</t>
+          <t>BP</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>31.05</v>
+        <v>28.32</v>
       </c>
       <c r="D160" t="n">
-        <v>0.97</v>
+        <v>0.66</v>
       </c>
       <c r="E160" t="n">
-        <v>9.978999999999999</v>
+        <v>8.558</v>
       </c>
       <c r="F160" t="n">
-        <v>32.811</v>
+        <v>74.526</v>
       </c>
       <c r="G160" t="n">
-        <v>12.13</v>
+        <v>202.29</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Kanzhun Limited</t>
+          <t>Lumen Technologies, Inc.</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>BZ</t>
+          <t>LUMN</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>14.53</v>
+        <v>3.29</v>
       </c>
       <c r="D161" t="n">
-        <v>0.22</v>
+        <v>0.01</v>
       </c>
       <c r="E161" t="n">
-        <v>8.635</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F161" t="n">
-        <v>6.613</v>
-      </c>
-      <c r="G161" t="n">
-        <v>30.91</v>
-      </c>
+        <v>3.373</v>
+      </c>
+      <c r="G161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>GSK plc</t>
+          <t>Pinterest, Inc.</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>GSK</t>
+          <t>PINS</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>34.64</v>
+        <v>25.26</v>
       </c>
       <c r="D162" t="n">
-        <v>1.04</v>
+        <v>-0.19</v>
       </c>
       <c r="E162" t="n">
-        <v>9.085000000000001</v>
+        <v>8.769</v>
       </c>
       <c r="F162" t="n">
-        <v>70.245</v>
+        <v>17.081</v>
       </c>
       <c r="G162" t="n">
-        <v>21.65</v>
+        <v>9.460000000000001</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Li Auto Inc.</t>
+          <t>Altria Group, Inc.</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>LI</t>
+          <t>MO</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>23.23</v>
+        <v>58.16</v>
       </c>
       <c r="D163" t="n">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="E163" t="n">
-        <v>8.601000000000001</v>
+        <v>7.086</v>
       </c>
       <c r="F163" t="n">
-        <v>23.548</v>
+        <v>98.078</v>
       </c>
       <c r="G163" t="n">
-        <v>22.55</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>The Walt Disney Company</t>
+          <t>Dominion Energy, Inc.</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>DIS</t>
+          <t>D</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>84.89</v>
+        <v>53.17</v>
       </c>
       <c r="D164" t="n">
-        <v>-0.34</v>
+        <v>0.11</v>
       </c>
       <c r="E164" t="n">
-        <v>8.561</v>
+        <v>7.813</v>
       </c>
       <c r="F164" t="n">
-        <v>153.463</v>
+        <v>45.312</v>
       </c>
       <c r="G164" t="n">
-        <v>27.56</v>
+        <v>24.17</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Oracle Corporation</t>
+          <t>Medical Properties Trust, Inc.</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ORCL</t>
+          <t>MPW</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>132.35</v>
+        <v>5.45</v>
       </c>
       <c r="D165" t="n">
-        <v>-1</v>
+        <v>0.06</v>
       </c>
       <c r="E165" t="n">
-        <v>8.737</v>
+        <v>8.772</v>
       </c>
       <c r="F165" t="n">
-        <v>371.14</v>
-      </c>
-      <c r="G165" t="n">
-        <v>31.07</v>
-      </c>
+        <v>3.273</v>
+      </c>
+      <c r="G165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>PepsiCo, Inc.</t>
+          <t>Coty Inc.</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>PEP</t>
+          <t>COTY</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>144.43</v>
+        <v>4.73</v>
       </c>
       <c r="D166" t="n">
-        <v>0.29</v>
+        <v>0.06</v>
       </c>
       <c r="E166" t="n">
-        <v>8.504</v>
+        <v>8.759</v>
       </c>
       <c r="F166" t="n">
-        <v>198.058</v>
-      </c>
-      <c r="G166" t="n">
-        <v>20.78</v>
-      </c>
+        <v>4.125</v>
+      </c>
+      <c r="G166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Permian Resources Corporation</t>
+          <t>Teva Pharmaceutical Industries Limited</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>PR</t>
+          <t>TEVA</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>11.04</v>
+        <v>13.65</v>
       </c>
       <c r="D167" t="n">
-        <v>0.48</v>
+        <v>0.22</v>
       </c>
       <c r="E167" t="n">
-        <v>9.462</v>
+        <v>8.08</v>
       </c>
       <c r="F167" t="n">
-        <v>8.933</v>
-      </c>
-      <c r="G167" t="n">
-        <v>7.61</v>
-      </c>
+        <v>15.656</v>
+      </c>
+      <c r="G167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>HP Inc.</t>
+          <t>Arista Networks Inc</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>HPQ</t>
+          <t>ANET</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>23.44</v>
+        <v>71.2</v>
       </c>
       <c r="D168" t="n">
-        <v>0.57</v>
+        <v>-0.67</v>
       </c>
       <c r="E168" t="n">
-        <v>10.167</v>
+        <v>8.503</v>
       </c>
       <c r="F168" t="n">
-        <v>22.097</v>
+        <v>89.401</v>
       </c>
       <c r="G168" t="n">
-        <v>8.43</v>
+        <v>31.93</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Medical Properties Trust, Inc.</t>
+          <t>AbbVie Inc.</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>MPW</t>
+          <t>ABBV</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>5.28</v>
+        <v>172.99</v>
       </c>
       <c r="D169" t="n">
-        <v>0.11</v>
+        <v>1.31</v>
       </c>
       <c r="E169" t="n">
-        <v>8.494999999999999</v>
+        <v>7.86</v>
       </c>
       <c r="F169" t="n">
-        <v>3.171</v>
-      </c>
-      <c r="G169" t="inlineStr"/>
+        <v>306.016</v>
+      </c>
+      <c r="G169" t="n">
+        <v>72.38</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Tempus AI, Inc.</t>
+          <t>Vertiv Holdings Co</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>TEM</t>
+          <t>VRT</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>42.12</v>
+        <v>73.20999999999999</v>
       </c>
       <c r="D170" t="n">
-        <v>1.83</v>
+        <v>1.56</v>
       </c>
       <c r="E170" t="n">
-        <v>8.521000000000001</v>
+        <v>9.045999999999999</v>
       </c>
       <c r="F170" t="n">
-        <v>7.288</v>
-      </c>
-      <c r="G170" t="inlineStr"/>
+        <v>27.877</v>
+      </c>
+      <c r="G170" t="n">
+        <v>57.2</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Bilibili Inc.</t>
+          <t>Dow Inc.</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>BILI</t>
+          <t>DOW</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>16.68</v>
+        <v>28.15</v>
       </c>
       <c r="D171" t="n">
-        <v>0.76</v>
+        <v>0.68</v>
       </c>
       <c r="E171" t="n">
-        <v>8.778</v>
+        <v>8.472</v>
       </c>
       <c r="F171" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="G171" t="inlineStr"/>
+        <v>19.867</v>
+      </c>
+      <c r="G171" t="n">
+        <v>17.93</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>AppLovin Corporation</t>
+          <t>Chevron Corporation</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>APP</t>
+          <t>CVX</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>249.95</v>
+        <v>137.87</v>
       </c>
       <c r="D172" t="n">
-        <v>-13.88</v>
+        <v>2.51</v>
       </c>
       <c r="E172" t="n">
-        <v>8.914</v>
+        <v>8.417</v>
       </c>
       <c r="F172" t="n">
-        <v>84.973</v>
+        <v>240.82</v>
       </c>
       <c r="G172" t="n">
-        <v>55.3</v>
+        <v>14.18</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Shell plc</t>
+          <t>Petróleo Brasileiro S.A. - Petrobras</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>SHEL</t>
+          <t>PBR-A</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>62.09</v>
+        <v>10.83</v>
       </c>
       <c r="D173" t="n">
-        <v>2.31</v>
+        <v>0.29</v>
       </c>
       <c r="E173" t="n">
-        <v>8.295</v>
+        <v>8.268000000000001</v>
       </c>
       <c r="F173" t="n">
-        <v>185.103</v>
+        <v>70.69799999999999</v>
       </c>
       <c r="G173" t="n">
-        <v>12.27</v>
+        <v>9.34</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>General Motors Company</t>
+          <t>Gilead Sciences, Inc.</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>GM</t>
+          <t>GILD</t>
         </is>
       </c>
       <c r="C174" t="n">
-        <v>43.63</v>
+        <v>104.54</v>
       </c>
       <c r="D174" t="n">
-        <v>-0.1</v>
+        <v>-0.34</v>
       </c>
       <c r="E174" t="n">
-        <v>8.247999999999999</v>
+        <v>8.055999999999999</v>
       </c>
       <c r="F174" t="n">
-        <v>43.412</v>
+        <v>130.323</v>
       </c>
       <c r="G174" t="n">
-        <v>6.85</v>
+        <v>275.11</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>British American Tobacco p.l.c.</t>
+          <t>Delta Air Lines, Inc.</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>BTI</t>
+          <t>DAL</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>41.57</v>
+        <v>40.85</v>
       </c>
       <c r="D175" t="n">
-        <v>1.02</v>
+        <v>0.26</v>
       </c>
       <c r="E175" t="n">
-        <v>8.526999999999999</v>
+        <v>8.108000000000001</v>
       </c>
       <c r="F175" t="n">
-        <v>91.21899999999999</v>
+        <v>26.673</v>
       </c>
       <c r="G175" t="n">
-        <v>23.75</v>
+        <v>7.24</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>United Airlines Holdings, Inc.</t>
+          <t>FirstEnergy Corp.</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>UAL</t>
+          <t>FE</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>65.59999999999999</v>
+        <v>42.02</v>
       </c>
       <c r="D176" t="n">
-        <v>2.85</v>
+        <v>1.22</v>
       </c>
       <c r="E176" t="n">
-        <v>8.583</v>
+        <v>8.077</v>
       </c>
       <c r="F176" t="n">
-        <v>21.497</v>
+        <v>24.251</v>
       </c>
       <c r="G176" t="n">
-        <v>6.94</v>
+        <v>24.72</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>XP Inc.</t>
+          <t>Ally Financial Inc.</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>XP</t>
+          <t>ALLY</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>13.46</v>
+        <v>31.63</v>
       </c>
       <c r="D177" t="n">
-        <v>0.54</v>
+        <v>-0.55</v>
       </c>
       <c r="E177" t="n">
-        <v>8.685</v>
+        <v>8.041</v>
       </c>
       <c r="F177" t="n">
-        <v>7.234</v>
+        <v>9.715</v>
       </c>
       <c r="G177" t="n">
-        <v>9.550000000000001</v>
+        <v>56.48</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>ConocoPhillips</t>
+          <t>Fidelity National Information Services, Inc.</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>COP</t>
+          <t>FIS</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>86.39</v>
+        <v>74.58</v>
       </c>
       <c r="D178" t="n">
-        <v>3.1</v>
+        <v>5.94</v>
       </c>
       <c r="E178" t="n">
-        <v>8.066000000000001</v>
+        <v>8.057</v>
       </c>
       <c r="F178" t="n">
-        <v>109.212</v>
+        <v>39.504</v>
       </c>
       <c r="G178" t="n">
-        <v>11.06</v>
+        <v>52.52</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Host Hotels &amp; Resorts, Inc.</t>
+          <t>Walgreens Boots Alliance, Inc.</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>HST</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="C179" t="n">
-        <v>13.71</v>
+        <v>10.89</v>
       </c>
       <c r="D179" t="n">
-        <v>0.26</v>
+        <v>0.09</v>
       </c>
       <c r="E179" t="n">
-        <v>10.564</v>
+        <v>7.845</v>
       </c>
       <c r="F179" t="n">
-        <v>9.632999999999999</v>
-      </c>
-      <c r="G179" t="n">
-        <v>13.85</v>
-      </c>
+        <v>9.417</v>
+      </c>
+      <c r="G179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Dell Technologies Inc.</t>
+          <t>ConocoPhillips</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>DELL</t>
+          <t>COP</t>
         </is>
       </c>
       <c r="C180" t="n">
-        <v>81.93000000000001</v>
+        <v>88.98</v>
       </c>
       <c r="D180" t="n">
-        <v>2.99</v>
+        <v>2.62</v>
       </c>
       <c r="E180" t="n">
-        <v>8.640000000000001</v>
+        <v>7.675</v>
       </c>
       <c r="F180" t="n">
-        <v>57.174</v>
+        <v>112.486</v>
       </c>
       <c r="G180" t="n">
-        <v>12.84</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>The Kraft Heinz Company</t>
+          <t>Microchip Technology Incorporated</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>KHC</t>
+          <t>MCHP</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>29.33</v>
+        <v>38.56</v>
       </c>
       <c r="D181" t="n">
-        <v>0.49</v>
+        <v>0.61</v>
       </c>
       <c r="E181" t="n">
-        <v>9.659000000000001</v>
+        <v>7.777</v>
       </c>
       <c r="F181" t="n">
-        <v>35.002</v>
+        <v>20.738</v>
       </c>
       <c r="G181" t="n">
-        <v>12.98</v>
+        <v>67.65000000000001</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>The Boeing Company</t>
+          <t>The Kraft Heinz Company</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>BA</t>
+          <t>KHC</t>
         </is>
       </c>
       <c r="C182" t="n">
-        <v>156.84</v>
+        <v>29.46</v>
       </c>
       <c r="D182" t="n">
-        <v>1.32</v>
+        <v>0.65</v>
       </c>
       <c r="E182" t="n">
-        <v>7.916</v>
+        <v>7.773</v>
       </c>
       <c r="F182" t="n">
-        <v>118.008</v>
-      </c>
-      <c r="G182" t="inlineStr"/>
+        <v>35.158</v>
+      </c>
+      <c r="G182" t="n">
+        <v>13.04</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Exelon Corporation</t>
+          <t>American Eagle Outfitters, Inc.</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>EXC</t>
+          <t>AEO</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>46</v>
+        <v>10.74</v>
       </c>
       <c r="D183" t="n">
-        <v>0.88</v>
+        <v>0.46</v>
       </c>
       <c r="E183" t="n">
-        <v>9.147</v>
+        <v>7.762</v>
       </c>
       <c r="F183" t="n">
-        <v>46.439</v>
+        <v>1.853</v>
       </c>
       <c r="G183" t="n">
-        <v>18.78</v>
+        <v>6.39</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Pinterest, Inc.</t>
+          <t>Copart, Inc.</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>PINS</t>
+          <t>CPRT</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>26.37</v>
+        <v>59.68</v>
       </c>
       <c r="D184" t="n">
-        <v>0.14</v>
+        <v>0.24</v>
       </c>
       <c r="E184" t="n">
-        <v>7.853</v>
+        <v>7.557</v>
       </c>
       <c r="F184" t="n">
-        <v>17.832</v>
+        <v>57.656</v>
       </c>
       <c r="G184" t="n">
-        <v>9.880000000000001</v>
+        <v>40.05</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Chewy, Inc.</t>
+          <t>Compass, Inc.</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>CHWY</t>
+          <t>COMP</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>34.66</v>
+        <v>7.29</v>
       </c>
       <c r="D185" t="n">
-        <v>2.08</v>
+        <v>-0.3</v>
       </c>
       <c r="E185" t="n">
-        <v>7.819</v>
+        <v>7.615</v>
       </c>
       <c r="F185" t="n">
-        <v>14.337</v>
-      </c>
-      <c r="G185" t="n">
-        <v>38.09</v>
-      </c>
+        <v>3.781</v>
+      </c>
+      <c r="G185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Dollar Tree, Inc.</t>
+          <t>Philip Morris International Inc.</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>PM</t>
         </is>
       </c>
       <c r="C186" t="n">
-        <v>72.11</v>
+        <v>163.21</v>
       </c>
       <c r="D186" t="n">
-        <v>0.37</v>
+        <v>2.73</v>
       </c>
       <c r="E186" t="n">
-        <v>8.135</v>
+        <v>7.54</v>
       </c>
       <c r="F186" t="n">
-        <v>15.51</v>
+        <v>254.035</v>
       </c>
       <c r="G186" t="n">
-        <v>14.93</v>
+        <v>27.16</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>The Kroger Co.</t>
+          <t>Exelon Corporation</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>KR</t>
+          <t>EXC</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>68.22</v>
+        <v>47.26</v>
       </c>
       <c r="D187" t="n">
-        <v>0.32</v>
+        <v>0.75</v>
       </c>
       <c r="E187" t="n">
-        <v>8.779999999999999</v>
+        <v>7.496</v>
       </c>
       <c r="F187" t="n">
-        <v>45.086</v>
+        <v>47.711</v>
       </c>
       <c r="G187" t="n">
-        <v>18.59</v>
+        <v>19.29</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Altria Group, Inc.</t>
+          <t>Netflix, Inc.</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>MO</t>
+          <t>NFLX</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>56.65</v>
+        <v>973.03</v>
       </c>
       <c r="D188" t="n">
-        <v>0.27</v>
+        <v>11.4</v>
       </c>
       <c r="E188" t="n">
-        <v>7.946</v>
+        <v>7.455</v>
       </c>
       <c r="F188" t="n">
-        <v>95.53100000000001</v>
+        <v>416.22</v>
       </c>
       <c r="G188" t="n">
-        <v>8.66</v>
+        <v>46.09</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Western Digital Corporation</t>
+          <t>ICICI Bank Limited</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>WDC</t>
+          <t>IBN</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>34.4</v>
+        <v>33.22</v>
       </c>
       <c r="D189" t="n">
-        <v>-0.47</v>
+        <v>1.25</v>
       </c>
       <c r="E189" t="n">
-        <v>8.651999999999999</v>
+        <v>7.597</v>
       </c>
       <c r="F189" t="n">
-        <v>11.965</v>
+        <v>118.312</v>
       </c>
       <c r="G189" t="n">
-        <v>9.94</v>
+        <v>20.76</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Roivant Sciences Ltd.</t>
+          <t>APA Corporation</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ROIV</t>
+          <t>APA</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>9.859999999999999</v>
+        <v>16.11</v>
       </c>
       <c r="D190" t="n">
-        <v>0.21</v>
+        <v>0.74</v>
       </c>
       <c r="E190" t="n">
-        <v>7.583</v>
+        <v>7.363</v>
       </c>
       <c r="F190" t="n">
-        <v>7.036</v>
-      </c>
-      <c r="G190" t="inlineStr"/>
+        <v>5.826</v>
+      </c>
+      <c r="G190" t="n">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>Oklo Inc.</t>
+          <t>Western Digital Corporation</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>OKLO</t>
+          <t>WDC</t>
         </is>
       </c>
       <c r="C191" t="n">
-        <v>22.5</v>
+        <v>36.51</v>
       </c>
       <c r="D191" t="n">
-        <v>-0.22</v>
+        <v>0.89</v>
       </c>
       <c r="E191" t="n">
-        <v>7.765</v>
+        <v>7.275</v>
       </c>
       <c r="F191" t="n">
-        <v>3.128</v>
-      </c>
-      <c r="G191" t="inlineStr"/>
+        <v>12.699</v>
+      </c>
+      <c r="G191" t="n">
+        <v>10.55</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Vertiv Holdings Co</t>
+          <t>GameStop Corp.</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>VRT</t>
+          <t>GME</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>69.61</v>
+        <v>26.78</v>
       </c>
       <c r="D192" t="n">
-        <v>1.88</v>
+        <v>0.53</v>
       </c>
       <c r="E192" t="n">
-        <v>7.612</v>
+        <v>7.33</v>
       </c>
       <c r="F192" t="n">
-        <v>26.506</v>
+        <v>11.973</v>
       </c>
       <c r="G192" t="n">
-        <v>54.38</v>
+        <v>81.15000000000001</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Cenovus Energy Inc.</t>
+          <t>Dollar Tree, Inc.</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>CVE</t>
+          <t>DLTR</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>11.4</v>
+        <v>79.14</v>
       </c>
       <c r="D193" t="n">
-        <v>0.3</v>
+        <v>5.93</v>
       </c>
       <c r="E193" t="n">
-        <v>7.56</v>
+        <v>7.216</v>
       </c>
       <c r="F193" t="n">
-        <v>20.787</v>
+        <v>17.022</v>
       </c>
       <c r="G193" t="n">
-        <v>9.66</v>
+        <v>16.39</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Wipro Limited</t>
+          <t>First Horizon Corporation</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>WIT</t>
+          <t>FHN</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>2.84</v>
+        <v>17.1</v>
       </c>
       <c r="D194" t="n">
-        <v>0</v>
+        <v>-0.18</v>
       </c>
       <c r="E194" t="n">
-        <v>7.922</v>
+        <v>7.318</v>
       </c>
       <c r="F194" t="n">
-        <v>29.708</v>
+        <v>8.67</v>
       </c>
       <c r="G194" t="n">
-        <v>20.29</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>KKR &amp; Co. Inc.</t>
+          <t>The Procter &amp; Gamble Company</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>KKR</t>
+          <t>PG</t>
         </is>
       </c>
       <c r="C195" t="n">
-        <v>101.44</v>
+        <v>170.63</v>
       </c>
       <c r="D195" t="n">
-        <v>-0.43</v>
+        <v>4.24</v>
       </c>
       <c r="E195" t="n">
-        <v>8.298999999999999</v>
+        <v>7.207</v>
       </c>
       <c r="F195" t="n">
-        <v>93.611</v>
+        <v>400.102</v>
       </c>
       <c r="G195" t="n">
-        <v>30.93</v>
+        <v>27.17</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>Blue Owl Capital Corporation</t>
+          <t>Full Truck Alliance Co. Ltd.</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>OBDC</t>
+          <t>YMM</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>13.28</v>
+        <v>10.07</v>
       </c>
       <c r="D196" t="n">
-        <v>0.19</v>
+        <v>0.05</v>
       </c>
       <c r="E196" t="n">
-        <v>7.451</v>
+        <v>7.231</v>
       </c>
       <c r="F196" t="n">
-        <v>6.787</v>
+        <v>10.532</v>
       </c>
       <c r="G196" t="n">
-        <v>8.68</v>
+        <v>24.56</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>CVS Health Corporation</t>
+          <t>Monster Beverage Corporation</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>CVS</t>
+          <t>MNST</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>69.51000000000001</v>
+        <v>58.41</v>
       </c>
       <c r="D197" t="n">
-        <v>0.54</v>
+        <v>0.46</v>
       </c>
       <c r="E197" t="n">
-        <v>11.367</v>
+        <v>7.138</v>
       </c>
       <c r="F197" t="n">
-        <v>87.748</v>
+        <v>56.842</v>
       </c>
       <c r="G197" t="n">
-        <v>18.99</v>
+        <v>39.2</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Ares Capital Corporation</t>
+          <t>Colgate-Palmolive Company</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ARCC</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>19.91</v>
+        <v>95.5</v>
       </c>
       <c r="D198" t="n">
-        <v>0.07000000000000001</v>
+        <v>2.53</v>
       </c>
       <c r="E198" t="n">
-        <v>7.413</v>
+        <v>7.03</v>
       </c>
       <c r="F198" t="n">
-        <v>13.628</v>
+        <v>77.459</v>
       </c>
       <c r="G198" t="n">
-        <v>8.16</v>
+        <v>27.21</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Peloton Interactive, Inc.</t>
+          <t>QUALCOMM Incorporated</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>PTON</t>
+          <t>QCOM</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>5.58</v>
+        <v>136.66</v>
       </c>
       <c r="D199" t="n">
-        <v>0.08</v>
+        <v>0.92</v>
       </c>
       <c r="E199" t="n">
-        <v>7.934</v>
+        <v>6.967</v>
       </c>
       <c r="F199" t="n">
-        <v>2.176</v>
-      </c>
-      <c r="G199" t="inlineStr"/>
+        <v>151.146</v>
+      </c>
+      <c r="G199" t="n">
+        <v>14.74</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Rithm Capital Corp.</t>
+          <t>Uranium Energy Corp.</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>RITM</t>
+          <t>UEC</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>9.76</v>
+        <v>5.05</v>
       </c>
       <c r="D200" t="n">
-        <v>0.19</v>
+        <v>0.23</v>
       </c>
       <c r="E200" t="n">
-        <v>7.36</v>
+        <v>6.941</v>
       </c>
       <c r="F200" t="n">
-        <v>5.176</v>
-      </c>
-      <c r="G200" t="n">
-        <v>5.84</v>
-      </c>
+        <v>2.165</v>
+      </c>
+      <c r="G200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Sprott Physical Gold Trust</t>
+          <t>Canadian Natural Resources Limited</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>PHYS</t>
+          <t>CNQ</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>24.82</v>
+        <v>28.8</v>
       </c>
       <c r="D201" t="n">
-        <v>0.5</v>
+        <v>0.63</v>
       </c>
       <c r="E201" t="n">
-        <v>7.377</v>
+        <v>7.198</v>
       </c>
       <c r="F201" t="n">
-        <v>20.706</v>
+        <v>60.458</v>
       </c>
       <c r="G201" t="n">
-        <v>5.81</v>
+        <v>14.12</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Bath &amp; Body Works, Inc.</t>
+          <t>The Williams Companies, Inc.</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>BBWI</t>
+          <t>WMB</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>26.64</v>
+        <v>58.62</v>
       </c>
       <c r="D202" t="n">
-        <v>-0.98</v>
+        <v>0.36</v>
       </c>
       <c r="E202" t="n">
-        <v>7.878</v>
+        <v>6.896</v>
       </c>
       <c r="F202" t="n">
-        <v>5.707</v>
+        <v>71.557</v>
       </c>
       <c r="G202" t="n">
-        <v>7.38</v>
+        <v>32.21</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Banco Santander, S.A.</t>
+          <t>Annaly Capital Management, Inc.</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>NLY</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>6.43</v>
+        <v>17.9</v>
       </c>
       <c r="D203" t="n">
-        <v>0.2</v>
+        <v>0.27</v>
       </c>
       <c r="E203" t="n">
-        <v>7.853</v>
+        <v>6.822</v>
       </c>
       <c r="F203" t="n">
-        <v>96.607</v>
+        <v>10.696</v>
       </c>
       <c r="G203" t="n">
-        <v>7.65</v>
+        <v>11.05</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>The Goodyear Tire &amp; Rubber Company</t>
+          <t>HP Inc.</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>HPQ</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>9.67</v>
+        <v>23.83</v>
       </c>
       <c r="D204" t="n">
-        <v>0.61</v>
+        <v>0.36</v>
       </c>
       <c r="E204" t="n">
-        <v>7.902</v>
+        <v>6.598</v>
       </c>
       <c r="F204" t="n">
-        <v>2.757</v>
+        <v>22.465</v>
       </c>
       <c r="G204" t="n">
-        <v>40.29</v>
+        <v>8.57</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>EQT Corporation</t>
+          <t>Valley National Bancorp</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>EQT</t>
+          <t>VLY</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>49.65</v>
+        <v>8.25</v>
       </c>
       <c r="D205" t="n">
-        <v>1.16</v>
+        <v>0.03</v>
       </c>
       <c r="E205" t="n">
-        <v>8.891999999999999</v>
+        <v>6.777</v>
       </c>
       <c r="F205" t="n">
-        <v>29.663</v>
+        <v>4.62</v>
       </c>
       <c r="G205" t="n">
-        <v>110.33</v>
+        <v>11.96</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Agnico Eagle Mines Limited</t>
+          <t>STMicroelectronics N.V.</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>AEM</t>
+          <t>STM</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>117.65</v>
+        <v>20.26</v>
       </c>
       <c r="D206" t="n">
-        <v>6.1</v>
+        <v>0.14</v>
       </c>
       <c r="E206" t="n">
-        <v>7.641</v>
+        <v>6.79</v>
       </c>
       <c r="F206" t="n">
-        <v>59.195</v>
+        <v>18.253</v>
       </c>
       <c r="G206" t="n">
-        <v>31.12</v>
+        <v>12.2</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Coinbase Global, Inc.</t>
+          <t>Moderna, Inc.</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>COIN</t>
+          <t>MRNA</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>175.5</v>
+        <v>24.72</v>
       </c>
       <c r="D207" t="n">
-        <v>5.88</v>
+        <v>-0.48</v>
       </c>
       <c r="E207" t="n">
-        <v>7.731</v>
+        <v>6.669</v>
       </c>
       <c r="F207" t="n">
-        <v>44.556</v>
-      </c>
-      <c r="G207" t="n">
-        <v>18.51</v>
-      </c>
+        <v>9.555</v>
+      </c>
+      <c r="G207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>AbbVie Inc.</t>
+          <t>VICI Properties Inc.</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ABBV</t>
+          <t>VICI</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>175.05</v>
+        <v>32.54</v>
       </c>
       <c r="D208" t="n">
-        <v>0.85</v>
+        <v>0.49</v>
       </c>
       <c r="E208" t="n">
-        <v>7.076</v>
+        <v>3.663</v>
       </c>
       <c r="F208" t="n">
-        <v>309.66</v>
+        <v>34.385</v>
       </c>
       <c r="G208" t="n">
-        <v>72.94</v>
+        <v>12.71</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Petróleo Brasileiro S.A. - Petrobras</t>
+          <t>Paramount Global</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>PBR-A</t>
+          <t>PARA</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>10.86</v>
+        <v>10.94</v>
       </c>
       <c r="D209" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="E209" t="n">
-        <v>7.212</v>
+        <v>6.66</v>
       </c>
       <c r="F209" t="n">
-        <v>71.74299999999999</v>
-      </c>
-      <c r="G209" t="n">
-        <v>9.359999999999999</v>
-      </c>
+        <v>7.795</v>
+      </c>
+      <c r="G209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>UiPath Inc.</t>
+          <t>Boston Scientific Corporation</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>PATH</t>
+          <t>BSX</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>10.87</v>
+        <v>95.12</v>
       </c>
       <c r="D210" t="n">
-        <v>0.24</v>
+        <v>-0.13</v>
       </c>
       <c r="E210" t="n">
-        <v>18.517</v>
+        <v>6.673</v>
       </c>
       <c r="F210" t="n">
-        <v>5.995</v>
-      </c>
-      <c r="G210" t="inlineStr"/>
+        <v>140.689</v>
+      </c>
+      <c r="G210" t="n">
+        <v>76.09999999999999</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Invesco Ltd.</t>
+          <t>Rocket Companies, Inc.</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>IVZ</t>
+          <t>RKT</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>12.78</v>
+        <v>12.04</v>
       </c>
       <c r="D211" t="n">
-        <v>0.09</v>
+        <v>-0.21</v>
       </c>
       <c r="E211" t="n">
-        <v>6.988</v>
+        <v>6.646</v>
       </c>
       <c r="F211" t="n">
-        <v>5.723</v>
+        <v>23.927</v>
       </c>
       <c r="G211" t="n">
-        <v>10.83</v>
+        <v>57.33</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>Alcoa Corporation</t>
+          <t>Genworth Financial, Inc.</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>AA</t>
+          <t>GNW</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>24.75</v>
+        <v>6.66</v>
       </c>
       <c r="D212" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E212" t="n">
-        <v>7.464</v>
+        <v>6.858</v>
       </c>
       <c r="F212" t="n">
-        <v>6.407</v>
+        <v>2.77</v>
       </c>
       <c r="G212" t="n">
-        <v>95.19</v>
+        <v>9.51</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Baidu, Inc.</t>
+          <t>Blue Owl Capital Inc.</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>BIDU</t>
+          <t>OWL</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>82.73</v>
+        <v>17.41</v>
       </c>
       <c r="D213" t="n">
-        <v>4.26</v>
+        <v>0.31</v>
       </c>
       <c r="E213" t="n">
-        <v>7.069</v>
+        <v>6.634</v>
       </c>
       <c r="F213" t="n">
-        <v>28.039</v>
+        <v>26.591</v>
       </c>
       <c r="G213" t="n">
-        <v>9.220000000000001</v>
+        <v>87.05</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Canadian Natural Resources Limited</t>
+          <t>Patterson Companies, Inc.</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>CNQ</t>
+          <t>PDCO</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>27.18</v>
+        <v>31.33</v>
       </c>
       <c r="D214" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="E214" t="n">
-        <v>6.903</v>
+        <v>6.525</v>
       </c>
       <c r="F214" t="n">
-        <v>57.058</v>
+        <v>2.772</v>
       </c>
       <c r="G214" t="n">
-        <v>13.46</v>
+        <v>20.48</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Johnson &amp; Johnson</t>
+          <t>Marex Group plc</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>JNJ</t>
+          <t>MRX</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>151.73</v>
+        <v>38.61</v>
       </c>
       <c r="D215" t="n">
-        <v>3.04</v>
+        <v>0.5</v>
       </c>
       <c r="E215" t="n">
-        <v>6.898</v>
+        <v>6.511</v>
       </c>
       <c r="F215" t="n">
-        <v>365.647</v>
+        <v>2.81</v>
       </c>
       <c r="G215" t="n">
-        <v>26.16</v>
+        <v>14.19</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Coupang, Inc.</t>
+          <t>NexGen Energy Ltd.</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>CPNG</t>
+          <t>NXE</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>21.65</v>
+        <v>4.74</v>
       </c>
       <c r="D216" t="n">
-        <v>0.65</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E216" t="n">
-        <v>6.761</v>
+        <v>6.636</v>
       </c>
       <c r="F216" t="n">
-        <v>39.207</v>
-      </c>
-      <c r="G216" t="n">
-        <v>270.62</v>
-      </c>
+        <v>2.697</v>
+      </c>
+      <c r="G216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Antero Resources Corporation</t>
+          <t>Applied Materials, Inc.</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>AMAT</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>33.1</v>
+        <v>137.46</v>
       </c>
       <c r="D217" t="n">
-        <v>1.18</v>
+        <v>-0.73</v>
       </c>
       <c r="E217" t="n">
-        <v>7.275</v>
+        <v>6.481</v>
       </c>
       <c r="F217" t="n">
-        <v>10.3</v>
+        <v>111.678</v>
       </c>
       <c r="G217" t="n">
-        <v>183.89</v>
+        <v>17.95</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Gilead Sciences, Inc.</t>
+          <t>Sweetgreen, Inc.</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>GILD</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>103.63</v>
+        <v>18.48</v>
       </c>
       <c r="D218" t="n">
-        <v>2.23</v>
+        <v>-1.31</v>
       </c>
       <c r="E218" t="n">
-        <v>8.683999999999999</v>
+        <v>6.47</v>
       </c>
       <c r="F218" t="n">
-        <v>129.188</v>
-      </c>
-      <c r="G218" t="n">
-        <v>272.71</v>
-      </c>
+        <v>2.168</v>
+      </c>
+      <c r="G218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>AngloGold Ashanti plc</t>
+          <t>Hologic, Inc.</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>HOLX</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>42.79</v>
+        <v>57.56</v>
       </c>
       <c r="D219" t="n">
-        <v>3.94</v>
+        <v>1.06</v>
       </c>
       <c r="E219" t="n">
-        <v>6.617</v>
+        <v>6.463</v>
       </c>
       <c r="F219" t="n">
-        <v>21.546</v>
+        <v>12.993</v>
       </c>
       <c r="G219" t="n">
-        <v>18.36</v>
+        <v>18.22</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>First Horizon Corporation</t>
+          <t>XP Inc.</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>FHN</t>
+          <t>XP</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>16.94</v>
+        <v>13.96</v>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="E220" t="n">
-        <v>6.616</v>
+        <v>6.449</v>
       </c>
       <c r="F220" t="n">
-        <v>8.710000000000001</v>
+        <v>7.502</v>
       </c>
       <c r="G220" t="n">
-        <v>12.46</v>
+        <v>9.970000000000001</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Baker Hughes Company</t>
+          <t>Hudbay Minerals Inc.</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>BKR</t>
+          <t>HBM</t>
         </is>
       </c>
       <c r="C221" t="n">
-        <v>37.93</v>
+        <v>7.04</v>
       </c>
       <c r="D221" t="n">
-        <v>1.27</v>
+        <v>-0.02</v>
       </c>
       <c r="E221" t="n">
-        <v>8.935</v>
+        <v>6.439</v>
       </c>
       <c r="F221" t="n">
-        <v>37.564</v>
+        <v>2.781</v>
       </c>
       <c r="G221" t="n">
-        <v>12.73</v>
+        <v>35.2</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Boston Scientific Corporation</t>
+          <t>D.R. Horton, Inc.</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>BSX</t>
+          <t>DHI</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>93.67</v>
+        <v>121.25</v>
       </c>
       <c r="D222" t="n">
-        <v>1.03</v>
+        <v>3.71</v>
       </c>
       <c r="E222" t="n">
-        <v>8.304</v>
+        <v>6.393</v>
       </c>
       <c r="F222" t="n">
-        <v>138.544</v>
+        <v>37.421</v>
       </c>
       <c r="G222" t="n">
-        <v>74.94</v>
+        <v>9.19</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Healthpeak Properties, Inc.</t>
+          <t>Acadia Healthcare Company, Inc.</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>DOC</t>
+          <t>ACHC</t>
         </is>
       </c>
       <c r="C223" t="n">
-        <v>18.16</v>
+        <v>23.91</v>
       </c>
       <c r="D223" t="n">
-        <v>-0.01</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E223" t="n">
-        <v>8.02</v>
+        <v>6.278</v>
       </c>
       <c r="F223" t="n">
-        <v>12.687</v>
+        <v>2.203</v>
       </c>
       <c r="G223" t="n">
-        <v>50.44</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Wayfair Inc.</t>
+          <t>Trip.com Group Limited</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>TCOM</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>26.95</v>
+        <v>54.85</v>
       </c>
       <c r="D224" t="n">
-        <v>0.66</v>
+        <v>-0.7</v>
       </c>
       <c r="E224" t="n">
-        <v>6.551</v>
+        <v>6.271</v>
       </c>
       <c r="F224" t="n">
-        <v>3.421</v>
-      </c>
-      <c r="G224" t="inlineStr"/>
+        <v>37.873</v>
+      </c>
+      <c r="G224" t="n">
+        <v>16.32</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Compass, Inc.</t>
+          <t>Yum China Holdings, Inc.</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>COMP</t>
+          <t>YUMC</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>7.51</v>
+        <v>41.37</v>
       </c>
       <c r="D225" t="n">
-        <v>0.03</v>
+        <v>-2.57</v>
       </c>
       <c r="E225" t="n">
-        <v>7.162</v>
+        <v>6.305</v>
       </c>
       <c r="F225" t="n">
-        <v>3.895</v>
-      </c>
-      <c r="G225" t="inlineStr"/>
+        <v>15.473</v>
+      </c>
+      <c r="G225" t="n">
+        <v>17.76</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Medtronic plc</t>
+          <t>Bloom Energy Corporation</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>MDT</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="C226" t="n">
-        <v>82.90000000000001</v>
+        <v>17</v>
       </c>
       <c r="D226" t="n">
-        <v>0.36</v>
+        <v>-0.83</v>
       </c>
       <c r="E226" t="n">
-        <v>6.594</v>
+        <v>6.153</v>
       </c>
       <c r="F226" t="n">
-        <v>106.323</v>
-      </c>
-      <c r="G226" t="n">
-        <v>25.27</v>
-      </c>
+        <v>3.919</v>
+      </c>
+      <c r="G226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Gold Fields Limited</t>
+          <t>AST SpaceMobile, Inc.</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>GFI</t>
+          <t>ASTS</t>
         </is>
       </c>
       <c r="C227" t="n">
-        <v>24.56</v>
+        <v>23.39</v>
       </c>
       <c r="D227" t="n">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="E227" t="n">
-        <v>6.417</v>
+        <v>6.135</v>
       </c>
       <c r="F227" t="n">
-        <v>21.982</v>
-      </c>
-      <c r="G227" t="n">
-        <v>17.8</v>
-      </c>
+        <v>7.403</v>
+      </c>
+      <c r="G227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>Lumen Technologies, Inc.</t>
+          <t>Harmony Gold Mining Company Limited</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>LUMN</t>
+          <t>HMY</t>
         </is>
       </c>
       <c r="C228" t="n">
-        <v>3.46</v>
+        <v>17.55</v>
       </c>
       <c r="D228" t="n">
-        <v>-0.08</v>
+        <v>-0.44</v>
       </c>
       <c r="E228" t="n">
-        <v>6.396</v>
+        <v>6.169</v>
       </c>
       <c r="F228" t="n">
-        <v>3.547</v>
-      </c>
-      <c r="G228" t="inlineStr"/>
+        <v>10.919</v>
+      </c>
+      <c r="G228" t="n">
+        <v>19.94</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>The Trade Desk, Inc.</t>
+          <t>Gerdau S.A.</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>TTD</t>
+          <t>GGB</t>
         </is>
       </c>
       <c r="C229" t="n">
-        <v>49.78</v>
+        <v>2.54</v>
       </c>
       <c r="D229" t="n">
-        <v>0.51</v>
+        <v>0.02</v>
       </c>
       <c r="E229" t="n">
-        <v>7.097</v>
+        <v>6.14</v>
       </c>
       <c r="F229" t="n">
-        <v>24.47</v>
+        <v>5.12</v>
       </c>
       <c r="G229" t="n">
-        <v>63.82</v>
+        <v>6.86</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>Mondelez International, Inc.</t>
+          <t>The Estée Lauder Companies Inc.</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>MDLZ</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="C230" t="n">
-        <v>67.05</v>
+        <v>54.47</v>
       </c>
       <c r="D230" t="n">
-        <v>1.07</v>
+        <v>1.81</v>
       </c>
       <c r="E230" t="n">
-        <v>8.782999999999999</v>
+        <v>5.481</v>
       </c>
       <c r="F230" t="n">
-        <v>86.866</v>
-      </c>
-      <c r="G230" t="n">
-        <v>19.61</v>
-      </c>
+        <v>19.594</v>
+      </c>
+      <c r="G230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>Coty Inc.</t>
+          <t>Alignment Healthcare, Inc.</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>COTY</t>
+          <t>ALHC</t>
         </is>
       </c>
       <c r="C231" t="n">
-        <v>5.2</v>
+        <v>18.24</v>
       </c>
       <c r="D231" t="n">
-        <v>0.06</v>
+        <v>-1.24</v>
       </c>
       <c r="E231" t="n">
-        <v>7.597</v>
+        <v>6.085</v>
       </c>
       <c r="F231" t="n">
-        <v>4.534</v>
+        <v>3.499</v>
       </c>
       <c r="G231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Fastenal Company</t>
+          <t>Dell Technologies Inc.</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>FAST</t>
+          <t>DELL</t>
         </is>
       </c>
       <c r="C232" t="n">
-        <v>80.64</v>
+        <v>84.8</v>
       </c>
       <c r="D232" t="n">
-        <v>4.85</v>
+        <v>1.44</v>
       </c>
       <c r="E232" t="n">
-        <v>7.392</v>
+        <v>6.071</v>
       </c>
       <c r="F232" t="n">
-        <v>46.256</v>
+        <v>59.177</v>
       </c>
       <c r="G232" t="n">
-        <v>40.32</v>
+        <v>13.29</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>CenterPoint Energy, Inc.</t>
+          <t>PepsiCo, Inc.</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>CNP</t>
+          <t>PEP</t>
         </is>
       </c>
       <c r="C233" t="n">
-        <v>36.58</v>
+        <v>142.84</v>
       </c>
       <c r="D233" t="n">
-        <v>0.39</v>
+        <v>2.75</v>
       </c>
       <c r="E233" t="n">
-        <v>8.297000000000001</v>
+        <v>6.052</v>
       </c>
       <c r="F233" t="n">
-        <v>23.877</v>
+        <v>195.878</v>
       </c>
       <c r="G233" t="n">
-        <v>23.15</v>
+        <v>20.52</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Cognex Corporation</t>
+          <t>Amphenol Corporation</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>CGNX</t>
+          <t>APH</t>
         </is>
       </c>
       <c r="C234" t="n">
-        <v>23.95</v>
+        <v>65.06</v>
       </c>
       <c r="D234" t="n">
-        <v>0.5</v>
+        <v>0.29</v>
       </c>
       <c r="E234" t="n">
-        <v>7.207</v>
+        <v>6.052</v>
       </c>
       <c r="F234" t="n">
-        <v>4.056</v>
+        <v>78.83799999999999</v>
       </c>
       <c r="G234" t="n">
-        <v>38.63</v>
+        <v>33.89</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>Summit Therapeutics Inc.</t>
+          <t>Sandstorm Gold Ltd.</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>SMMT</t>
+          <t>SAND</t>
         </is>
       </c>
       <c r="C235" t="n">
-        <v>23.24</v>
+        <v>8.49</v>
       </c>
       <c r="D235" t="n">
-        <v>3.09</v>
+        <v>0.02</v>
       </c>
       <c r="E235" t="n">
-        <v>6.641</v>
+        <v>6.063</v>
       </c>
       <c r="F235" t="n">
-        <v>17.144</v>
-      </c>
-      <c r="G235" t="inlineStr"/>
+        <v>2.492</v>
+      </c>
+      <c r="G235" t="n">
+        <v>169.8</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>StoneCo Ltd.</t>
+          <t>Sprott Physical Gold Trust</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>STNE</t>
+          <t>PHYS</t>
         </is>
       </c>
       <c r="C236" t="n">
-        <v>11.53</v>
+        <v>25.51</v>
       </c>
       <c r="D236" t="n">
-        <v>0.55</v>
+        <v>-0.09</v>
       </c>
       <c r="E236" t="n">
-        <v>6.245</v>
+        <v>5.897</v>
       </c>
       <c r="F236" t="n">
-        <v>3.163</v>
-      </c>
-      <c r="G236" t="inlineStr"/>
+        <v>22.234</v>
+      </c>
+      <c r="G236" t="n">
+        <v>5.97</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Suncor Energy Inc.</t>
+          <t>Medtronic plc</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>SU</t>
+          <t>MDT</t>
         </is>
       </c>
       <c r="C237" t="n">
-        <v>33.45</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="D237" t="n">
-        <v>1.24</v>
+        <v>-0.1</v>
       </c>
       <c r="E237" t="n">
-        <v>6.237</v>
+        <v>5.937</v>
       </c>
       <c r="F237" t="n">
-        <v>41.382</v>
+        <v>105.938</v>
       </c>
       <c r="G237" t="n">
-        <v>9.99</v>
+        <v>25.18</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>Patterson-UTI Energy, Inc.</t>
+          <t>ON Semiconductor Corporation</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>PTEN</t>
+          <t>ON</t>
         </is>
       </c>
       <c r="C238" t="n">
-        <v>5.76</v>
+        <v>34.64</v>
       </c>
       <c r="D238" t="n">
-        <v>0.17</v>
+        <v>0.39</v>
       </c>
       <c r="E238" t="n">
-        <v>6.976</v>
+        <v>5.824</v>
       </c>
       <c r="F238" t="n">
-        <v>2.223</v>
-      </c>
-      <c r="G238" t="inlineStr"/>
+        <v>14.62</v>
+      </c>
+      <c r="G238" t="n">
+        <v>9.539999999999999</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Coterra Energy Inc.</t>
+          <t>EOG Resources, Inc.</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>CTRA</t>
+          <t>EOG</t>
         </is>
       </c>
       <c r="C239" t="n">
-        <v>25.16</v>
+        <v>110.5</v>
       </c>
       <c r="D239" t="n">
-        <v>0.46</v>
+        <v>2.26</v>
       </c>
       <c r="E239" t="n">
-        <v>7.199</v>
+        <v>5.905</v>
       </c>
       <c r="F239" t="n">
-        <v>19.225</v>
+        <v>60.946</v>
       </c>
       <c r="G239" t="n">
-        <v>16.77</v>
+        <v>9.82</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>GE HealthCare Technologies Inc.</t>
+          <t>Las Vegas Sands Corp.</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>GEHC</t>
+          <t>LVS</t>
         </is>
       </c>
       <c r="C240" t="n">
-        <v>62.81</v>
+        <v>32.77</v>
       </c>
       <c r="D240" t="n">
-        <v>0.53</v>
+        <v>0.91</v>
       </c>
       <c r="E240" t="n">
-        <v>7.063</v>
+        <v>4.872</v>
       </c>
       <c r="F240" t="n">
-        <v>28.757</v>
+        <v>23.156</v>
       </c>
       <c r="G240" t="n">
-        <v>14.47</v>
+        <v>16.72</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Arm Holdings plc</t>
+          <t>XPeng Inc.</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ARM</t>
+          <t>XPEV</t>
         </is>
       </c>
       <c r="C241" t="n">
-        <v>103.99</v>
+        <v>18.22</v>
       </c>
       <c r="D241" t="n">
-        <v>3.53</v>
+        <v>-0.49</v>
       </c>
       <c r="E241" t="n">
-        <v>6.473</v>
+        <v>5.248</v>
       </c>
       <c r="F241" t="n">
-        <v>109.605</v>
-      </c>
-      <c r="G241" t="n">
-        <v>136.83</v>
-      </c>
+        <v>18.014</v>
+      </c>
+      <c r="G241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>The Procter &amp; Gamble Company</t>
+          <t>Texas Instruments Incorporated</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>PG</t>
+          <t>TXN</t>
         </is>
       </c>
       <c r="C242" t="n">
-        <v>166.91</v>
+        <v>148.44</v>
       </c>
       <c r="D242" t="n">
-        <v>3.35</v>
+        <v>1.89</v>
       </c>
       <c r="E242" t="n">
-        <v>8.537000000000001</v>
+        <v>5.679</v>
       </c>
       <c r="F242" t="n">
-        <v>391.379</v>
+        <v>135.068</v>
       </c>
       <c r="G242" t="n">
-        <v>26.58</v>
+        <v>28.55</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>Mattel, Inc.</t>
+          <t>Centene Corporation</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>MAT</t>
+          <t>CNC</t>
         </is>
       </c>
       <c r="C243" t="n">
-        <v>15.04</v>
+        <v>60.7</v>
       </c>
       <c r="D243" t="n">
-        <v>0.27</v>
+        <v>-1.28</v>
       </c>
       <c r="E243" t="n">
-        <v>6.032</v>
+        <v>4.842</v>
       </c>
       <c r="F243" t="n">
-        <v>4.857</v>
+        <v>30.111</v>
       </c>
       <c r="G243" t="n">
-        <v>9.52</v>
+        <v>9.619999999999999</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>Corebridge Financial, Inc.</t>
+          <t>Prologis, Inc.</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>CRBG</t>
+          <t>PLD</t>
         </is>
       </c>
       <c r="C244" t="n">
-        <v>26.69</v>
+        <v>102.1</v>
       </c>
       <c r="D244" t="n">
-        <v>0.03</v>
+        <v>1.81</v>
       </c>
       <c r="E244" t="n">
-        <v>5.995</v>
+        <v>6.213</v>
       </c>
       <c r="F244" t="n">
-        <v>14.84</v>
+        <v>94.64400000000001</v>
       </c>
       <c r="G244" t="n">
-        <v>7.17</v>
+        <v>25.46</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Baxter International Inc.</t>
+          <t>Visa Inc.</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>BAX</t>
+          <t>V</t>
         </is>
       </c>
       <c r="C245" t="n">
-        <v>27.84</v>
+        <v>329.61</v>
       </c>
       <c r="D245" t="n">
-        <v>-0.3</v>
+        <v>-1.72</v>
       </c>
       <c r="E245" t="n">
-        <v>5.917</v>
+        <v>4.581</v>
       </c>
       <c r="F245" t="n">
-        <v>14.28</v>
-      </c>
-      <c r="G245" t="inlineStr"/>
+        <v>635.821</v>
+      </c>
+      <c r="G245" t="n">
+        <v>33.23</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Macy's, Inc.</t>
+          <t>Ball Corporation</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>BALL</t>
         </is>
       </c>
       <c r="C246" t="n">
-        <v>11.37</v>
+        <v>47.38</v>
       </c>
       <c r="D246" t="n">
-        <v>-0.08</v>
+        <v>0.31</v>
       </c>
       <c r="E246" t="n">
-        <v>6.651</v>
+        <v>5.596</v>
       </c>
       <c r="F246" t="n">
-        <v>3.167</v>
+        <v>13.379</v>
       </c>
       <c r="G246" t="n">
-        <v>5.49</v>
+        <v>34.58</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>ZoomInfo Technologies Inc.</t>
+          <t>Host Hotels &amp; Resorts, Inc.</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ZI</t>
+          <t>HST</t>
         </is>
       </c>
       <c r="C247" t="n">
-        <v>7.93</v>
+        <v>13.66</v>
       </c>
       <c r="D247" t="n">
-        <v>0.09</v>
+        <v>0.25</v>
       </c>
       <c r="E247" t="n">
-        <v>5.893</v>
+        <v>5.532</v>
       </c>
       <c r="F247" t="n">
-        <v>2.897</v>
+        <v>9.598000000000001</v>
       </c>
       <c r="G247" t="n">
-        <v>99.12</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Carrier Global Corporation</t>
+          <t>Baxter International Inc.</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>CARR</t>
+          <t>BAX</t>
         </is>
       </c>
       <c r="C248" t="n">
-        <v>59.26</v>
+        <v>28.89</v>
       </c>
       <c r="D248" t="n">
-        <v>0.21</v>
+        <v>1.07</v>
       </c>
       <c r="E248" t="n">
-        <v>7.161</v>
+        <v>5.523</v>
       </c>
       <c r="F248" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="G248" t="n">
-        <v>48.57</v>
-      </c>
+        <v>14.818</v>
+      </c>
+      <c r="G248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Citizens Financial Group, Inc.</t>
+          <t>The TJX Companies, Inc.</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>CFG</t>
+          <t>TJX</t>
         </is>
       </c>
       <c r="C249" t="n">
-        <v>34.82</v>
+        <v>127.62</v>
       </c>
       <c r="D249" t="n">
-        <v>0.03</v>
+        <v>1.31</v>
       </c>
       <c r="E249" t="n">
-        <v>5.863</v>
+        <v>5.554</v>
       </c>
       <c r="F249" t="n">
-        <v>15.221</v>
+        <v>142.564</v>
       </c>
       <c r="G249" t="n">
-        <v>11.49</v>
+        <v>29.96</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>Elanco Animal Health Incorporated</t>
+          <t>AngloGold Ashanti plc</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ELAN</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="C250" t="n">
-        <v>8.619999999999999</v>
+        <v>43.25</v>
       </c>
       <c r="D250" t="n">
-        <v>-0.09</v>
+        <v>-2.37</v>
       </c>
       <c r="E250" t="n">
-        <v>5.848</v>
+        <v>4.902</v>
       </c>
       <c r="F250" t="n">
-        <v>4.279</v>
+        <v>21.778</v>
       </c>
       <c r="G250" t="n">
-        <v>12.68</v>
+        <v>18.56</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>Mizuho Financial Group, Inc.</t>
+          <t>HDFC Bank Limited</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>MFG</t>
+          <t>HDB</t>
         </is>
       </c>
       <c r="C251" t="n">
-        <v>4.65</v>
+        <v>72.04000000000001</v>
       </c>
       <c r="D251" t="n">
-        <v>0.11</v>
+        <v>2.78</v>
       </c>
       <c r="E251" t="n">
-        <v>5.825</v>
+        <v>5.53</v>
       </c>
       <c r="F251" t="n">
-        <v>58.345</v>
+        <v>183.755</v>
       </c>
       <c r="G251" t="n">
-        <v>9.69</v>
+        <v>23.02</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>Franklin Resources, Inc.</t>
+          <t>CCC Intelligent Solutions Holdings Inc.</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>BEN</t>
+          <t>CCCS</t>
         </is>
       </c>
       <c r="C252" t="n">
-        <v>17.9</v>
+        <v>8.67</v>
       </c>
       <c r="D252" t="n">
-        <v>0.18</v>
+        <v>-0.1</v>
       </c>
       <c r="E252" t="n">
-        <v>5.795</v>
+        <v>5.433</v>
       </c>
       <c r="F252" t="n">
-        <v>9.404999999999999</v>
+        <v>5.713</v>
       </c>
       <c r="G252" t="n">
-        <v>27.97</v>
+        <v>216.75</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>Synchrony Financial</t>
+          <t>State Street Corporation</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>SYF</t>
+          <t>STT</t>
         </is>
       </c>
       <c r="C253" t="n">
-        <v>46.13</v>
+        <v>81.26000000000001</v>
       </c>
       <c r="D253" t="n">
-        <v>-0.5</v>
+        <v>1.63</v>
       </c>
       <c r="E253" t="n">
-        <v>6.528</v>
+        <v>5.522</v>
       </c>
       <c r="F253" t="n">
-        <v>17.933</v>
+        <v>23.458</v>
       </c>
       <c r="G253" t="n">
-        <v>5.4</v>
+        <v>9.15</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>Pan American Silver Corp.</t>
+          <t>Macy's, Inc.</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>PAAS</t>
+          <t>M</t>
         </is>
       </c>
       <c r="C254" t="n">
-        <v>25.88</v>
+        <v>11.13</v>
       </c>
       <c r="D254" t="n">
-        <v>1.04</v>
+        <v>0.12</v>
       </c>
       <c r="E254" t="n">
-        <v>6.173</v>
+        <v>4.932</v>
       </c>
       <c r="F254" t="n">
-        <v>9.372999999999999</v>
+        <v>3.101</v>
       </c>
       <c r="G254" t="n">
-        <v>83.48</v>
+        <v>5.38</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>The Williams Companies, Inc.</t>
+          <t>Baker Hughes Company</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>WMB</t>
+          <t>BKR</t>
         </is>
       </c>
       <c r="C255" t="n">
-        <v>56.39</v>
+        <v>38.91</v>
       </c>
       <c r="D255" t="n">
-        <v>1.32</v>
+        <v>0.78</v>
       </c>
       <c r="E255" t="n">
-        <v>7.415</v>
+        <v>5.418</v>
       </c>
       <c r="F255" t="n">
-        <v>68.83499999999999</v>
+        <v>38.535</v>
       </c>
       <c r="G255" t="n">
-        <v>30.98</v>
+        <v>13.06</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>Bloom Energy Corporation</t>
+          <t>Wipro Limited</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>WIT</t>
         </is>
       </c>
       <c r="C256" t="n">
-        <v>17.64</v>
+        <v>2.7</v>
       </c>
       <c r="D256" t="n">
-        <v>0.79</v>
+        <v>-0.03</v>
       </c>
       <c r="E256" t="n">
-        <v>6.728</v>
+        <v>5.394</v>
       </c>
       <c r="F256" t="n">
-        <v>4.066</v>
-      </c>
-      <c r="G256" t="inlineStr"/>
+        <v>28.943</v>
+      </c>
+      <c r="G256" t="n">
+        <v>19.29</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>Blackstone Inc.</t>
+          <t>Salesforce, Inc.</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>BX</t>
+          <t>CRM</t>
         </is>
       </c>
       <c r="C257" t="n">
-        <v>127.18</v>
+        <v>247.26</v>
       </c>
       <c r="D257" t="n">
-        <v>-0.27</v>
+        <v>-2.58</v>
       </c>
       <c r="E257" t="n">
-        <v>7.763</v>
+        <v>5.271</v>
       </c>
       <c r="F257" t="n">
-        <v>154.989</v>
+        <v>237.617</v>
       </c>
       <c r="G257" t="n">
-        <v>35.13</v>
+        <v>38.94</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>NatWest Group plc</t>
+          <t>Coterra Energy Inc.</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>NWG</t>
+          <t>CTRA</t>
         </is>
       </c>
       <c r="C258" t="n">
-        <v>11.61</v>
+        <v>25.85</v>
       </c>
       <c r="D258" t="n">
-        <v>0.34</v>
+        <v>0.22</v>
       </c>
       <c r="E258" t="n">
-        <v>5.893</v>
+        <v>5.327</v>
       </c>
       <c r="F258" t="n">
-        <v>46.829</v>
+        <v>19.752</v>
       </c>
       <c r="G258" t="n">
-        <v>8.66</v>
+        <v>17.23</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>Abbott Laboratories</t>
+          <t>Berkshire Hathaway Inc.</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>ABT</t>
+          <t>BRK-B</t>
         </is>
       </c>
       <c r="C259" t="n">
-        <v>126.88</v>
+        <v>518.21</v>
       </c>
       <c r="D259" t="n">
-        <v>2.38</v>
+        <v>1.76</v>
       </c>
       <c r="E259" t="n">
-        <v>7.355</v>
+        <v>3.394</v>
       </c>
       <c r="F259" t="n">
-        <v>220.051</v>
+        <v>1119</v>
       </c>
       <c r="G259" t="n">
-        <v>16.61</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>Sandstorm Gold Ltd.</t>
+          <t>Wayfair Inc.</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>SAND</t>
+          <t>W</t>
         </is>
       </c>
       <c r="C260" t="n">
-        <v>7.93</v>
+        <v>26.61</v>
       </c>
       <c r="D260" t="n">
-        <v>0.33</v>
+        <v>1.47</v>
       </c>
       <c r="E260" t="n">
-        <v>5.966</v>
+        <v>5.369</v>
       </c>
       <c r="F260" t="n">
-        <v>2.327</v>
-      </c>
-      <c r="G260" t="n">
-        <v>158.6</v>
-      </c>
+        <v>3.378</v>
+      </c>
+      <c r="G260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>Copart, Inc.</t>
+          <t>F.N.B. Corporation</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>CPRT</t>
+          <t>FNB</t>
         </is>
       </c>
       <c r="C261" t="n">
-        <v>59.84</v>
+        <v>12.61</v>
       </c>
       <c r="D261" t="n">
-        <v>1.18</v>
+        <v>0.38</v>
       </c>
       <c r="E261" t="n">
-        <v>6.982</v>
+        <v>5.441</v>
       </c>
       <c r="F261" t="n">
-        <v>57.811</v>
+        <v>4.532</v>
       </c>
       <c r="G261" t="n">
-        <v>40.16</v>
+        <v>9.93</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>Analog Devices, Inc.</t>
+          <t>Morgan Stanley</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ADI</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="C262" t="n">
-        <v>179.16</v>
+        <v>109.18</v>
       </c>
       <c r="D262" t="n">
-        <v>0.8</v>
+        <v>1.32</v>
       </c>
       <c r="E262" t="n">
-        <v>6.508</v>
+        <v>4.148</v>
       </c>
       <c r="F262" t="n">
-        <v>88.85899999999999</v>
+        <v>175.452</v>
       </c>
       <c r="G262" t="n">
-        <v>57.06</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>SentinelOne, Inc.</t>
+          <t>Clarivate Plc</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>CLVT</t>
         </is>
       </c>
       <c r="C263" t="n">
-        <v>17.58</v>
+        <v>3.39</v>
       </c>
       <c r="D263" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.09</v>
       </c>
       <c r="E263" t="n">
-        <v>5.592</v>
+        <v>5.621</v>
       </c>
       <c r="F263" t="n">
-        <v>5.795</v>
+        <v>2.336</v>
       </c>
       <c r="G263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>Unity Software Inc.</t>
+          <t>Adobe Inc.</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>U</t>
+          <t>ADBE</t>
         </is>
       </c>
       <c r="C264" t="n">
-        <v>19.23</v>
+        <v>348.8</v>
       </c>
       <c r="D264" t="n">
-        <v>0.15</v>
+        <v>4.61</v>
       </c>
       <c r="E264" t="n">
-        <v>5.592</v>
+        <v>5.206</v>
       </c>
       <c r="F264" t="n">
-        <v>7.878</v>
-      </c>
-      <c r="G264" t="inlineStr"/>
+        <v>148.659</v>
+      </c>
+      <c r="G264" t="n">
+        <v>23.04</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>Alamos Gold Inc.</t>
+          <t>RTX Corporation</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>AGI</t>
+          <t>RTX</t>
         </is>
       </c>
       <c r="C265" t="n">
-        <v>29.22</v>
+        <v>128.89</v>
       </c>
       <c r="D265" t="n">
-        <v>1.25</v>
+        <v>-0.36</v>
       </c>
       <c r="E265" t="n">
-        <v>5.567</v>
+        <v>5.109</v>
       </c>
       <c r="F265" t="n">
-        <v>12.287</v>
+        <v>172.08</v>
       </c>
       <c r="G265" t="n">
-        <v>42.35</v>
+        <v>36.41</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>American Eagle Outfitters, Inc.</t>
+          <t>Coinbase Global, Inc.</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>AEO</t>
+          <t>COIN</t>
         </is>
       </c>
       <c r="C266" t="n">
-        <v>10.64</v>
+        <v>175.03</v>
       </c>
       <c r="D266" t="n">
-        <v>0.09</v>
+        <v>2.82</v>
       </c>
       <c r="E266" t="n">
-        <v>6.453</v>
+        <v>5.112</v>
       </c>
       <c r="F266" t="n">
-        <v>1.836</v>
+        <v>44.436</v>
       </c>
       <c r="G266" t="n">
-        <v>6.33</v>
+        <v>18.44</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>The Bank of New York Mellon Corporation</t>
+          <t>Elanco Animal Health Incorporated</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>ELAN</t>
         </is>
       </c>
       <c r="C267" t="n">
-        <v>77.67</v>
+        <v>8.44</v>
       </c>
       <c r="D267" t="n">
-        <v>1.06</v>
+        <v>0.34</v>
       </c>
       <c r="E267" t="n">
-        <v>6.804</v>
+        <v>4.29</v>
       </c>
       <c r="F267" t="n">
-        <v>55.568</v>
+        <v>4.19</v>
       </c>
       <c r="G267" t="n">
-        <v>12.67</v>
+        <v>12.41</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>AST SpaceMobile, Inc.</t>
+          <t>Target Corporation</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>ASTS</t>
+          <t>TGT</t>
         </is>
       </c>
       <c r="C268" t="n">
-        <v>23.28</v>
+        <v>93.11</v>
       </c>
       <c r="D268" t="n">
-        <v>0.14</v>
+        <v>2.65</v>
       </c>
       <c r="E268" t="n">
-        <v>6.107</v>
+        <v>4.251</v>
       </c>
       <c r="F268" t="n">
-        <v>7.368</v>
-      </c>
-      <c r="G268" t="inlineStr"/>
+        <v>42.419</v>
+      </c>
+      <c r="G268" t="n">
+        <v>10.51</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>Apollo Global Management, Inc.</t>
+          <t>Associated Banc-Corp</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>APO</t>
+          <t>ASB</t>
         </is>
       </c>
       <c r="C269" t="n">
-        <v>125.92</v>
+        <v>19.97</v>
       </c>
       <c r="D269" t="n">
-        <v>1.99</v>
+        <v>0.31</v>
       </c>
       <c r="E269" t="n">
-        <v>6.257</v>
+        <v>5.193</v>
       </c>
       <c r="F269" t="n">
-        <v>71.83499999999999</v>
+        <v>3.308</v>
       </c>
       <c r="G269" t="n">
-        <v>17.18</v>
+        <v>27.74</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>Ally Financial Inc.</t>
+          <t>Realty Income Corporation</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>ALLY</t>
+          <t>O</t>
         </is>
       </c>
       <c r="C270" t="n">
-        <v>31.8</v>
+        <v>58.32</v>
       </c>
       <c r="D270" t="n">
-        <v>-0.19</v>
+        <v>1.06</v>
       </c>
       <c r="E270" t="n">
-        <v>6.337</v>
+        <v>4.081</v>
       </c>
       <c r="F270" t="n">
-        <v>9.766999999999999</v>
+        <v>52.008</v>
       </c>
       <c r="G270" t="n">
-        <v>17.67</v>
+        <v>59.51</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>Nebius Group N.V.</t>
+          <t>Celestica Inc.</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>NBIS</t>
+          <t>CLS</t>
         </is>
       </c>
       <c r="C271" t="n">
-        <v>21.51</v>
+        <v>84.04000000000001</v>
       </c>
       <c r="D271" t="n">
-        <v>0.47</v>
+        <v>3.48</v>
       </c>
       <c r="E271" t="n">
-        <v>5.44</v>
+        <v>5.271</v>
       </c>
       <c r="F271" t="n">
-        <v>5.071</v>
-      </c>
-      <c r="G271" t="inlineStr"/>
+        <v>9.744999999999999</v>
+      </c>
+      <c r="G271" t="n">
+        <v>23.28</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>GE Aerospace</t>
+          <t>AppLovin Corporation</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>APP</t>
         </is>
       </c>
       <c r="C272" t="n">
-        <v>181.67</v>
+        <v>238.22</v>
       </c>
       <c r="D272" t="n">
-        <v>0.16</v>
+        <v>8.41</v>
       </c>
       <c r="E272" t="n">
-        <v>5.431</v>
+        <v>5.075</v>
       </c>
       <c r="F272" t="n">
-        <v>193.766</v>
+        <v>80.985</v>
       </c>
       <c r="G272" t="n">
-        <v>29.83</v>
+        <v>52.59</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>Trip.com Group Limited</t>
+          <t>Roblox Corporation</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>TCOM</t>
+          <t>RBLX</t>
         </is>
       </c>
       <c r="C273" t="n">
-        <v>54.73</v>
+        <v>59.71</v>
       </c>
       <c r="D273" t="n">
-        <v>0.54</v>
+        <v>0.62</v>
       </c>
       <c r="E273" t="n">
-        <v>5.569</v>
+        <v>4.385</v>
       </c>
       <c r="F273" t="n">
-        <v>36.023</v>
-      </c>
-      <c r="G273" t="n">
-        <v>16.24</v>
-      </c>
+        <v>39.844</v>
+      </c>
+      <c r="G273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>Kimco Realty Corporation</t>
+          <t>Maplebear Inc.</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>KIM</t>
+          <t>CART</t>
         </is>
       </c>
       <c r="C274" t="n">
-        <v>20.13</v>
+        <v>42.99</v>
       </c>
       <c r="D274" t="n">
-        <v>0.36</v>
+        <v>0.91</v>
       </c>
       <c r="E274" t="n">
-        <v>5.41</v>
+        <v>5.046</v>
       </c>
       <c r="F274" t="n">
-        <v>13.678</v>
+        <v>11.286</v>
       </c>
       <c r="G274" t="n">
-        <v>36.6</v>
+        <v>27.21</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>Prologis, Inc.</t>
+          <t>Viking Therapeutics, Inc.</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>PLD</t>
+          <t>VKTX</t>
         </is>
       </c>
       <c r="C275" t="n">
-        <v>96.23</v>
+        <v>23.94</v>
       </c>
       <c r="D275" t="n">
-        <v>1.34</v>
+        <v>0.34</v>
       </c>
       <c r="E275" t="n">
-        <v>5.473</v>
+        <v>5.007</v>
       </c>
       <c r="F275" t="n">
-        <v>89.203</v>
-      </c>
-      <c r="G275" t="n">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" t="inlineStr">
-        <is>
-          <t>CCC Intelligent Solutions Holdings Inc.</t>
-        </is>
-      </c>
-      <c r="B276" t="inlineStr">
-        <is>
-          <t>CCCS</t>
-        </is>
-      </c>
-      <c r="C276" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="D276" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="E276" t="n">
-        <v>6.545</v>
-      </c>
-      <c r="F276" t="n">
-        <v>5.924</v>
-      </c>
-      <c r="G276" t="n">
-        <v>224.75</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" t="inlineStr">
-        <is>
-          <t>Visa Inc.</t>
-        </is>
-      </c>
-      <c r="B277" t="inlineStr">
-        <is>
-          <t>V</t>
-        </is>
-      </c>
-      <c r="C277" t="n">
-        <v>333.4</v>
-      </c>
-      <c r="D277" t="n">
-        <v>8.789999999999999</v>
-      </c>
-      <c r="E277" t="n">
-        <v>5.329</v>
-      </c>
-      <c r="F277" t="n">
-        <v>643.1319999999999</v>
-      </c>
-      <c r="G277" t="n">
-        <v>33.54</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t>Tapestry, Inc.</t>
-        </is>
-      </c>
-      <c r="B278" t="inlineStr">
-        <is>
-          <t>TPR</t>
-        </is>
-      </c>
-      <c r="C278" t="n">
-        <v>63.4</v>
-      </c>
-      <c r="D278" t="n">
-        <v>-0.52</v>
-      </c>
-      <c r="E278" t="n">
-        <v>5.318</v>
-      </c>
-      <c r="F278" t="n">
-        <v>13.125</v>
-      </c>
-      <c r="G278" t="n">
-        <v>18.43</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" t="inlineStr">
-        <is>
-          <t>The TJX Companies, Inc.</t>
-        </is>
-      </c>
-      <c r="B279" t="inlineStr">
-        <is>
-          <t>TJX</t>
-        </is>
-      </c>
-      <c r="C279" t="n">
-        <v>128.15</v>
-      </c>
-      <c r="D279" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="E279" t="n">
-        <v>5.37</v>
-      </c>
-      <c r="F279" t="n">
-        <v>143.156</v>
-      </c>
-      <c r="G279" t="n">
-        <v>30.15</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="A280" t="inlineStr">
-        <is>
-          <t>Vipshop Holdings Limited</t>
-        </is>
-      </c>
-      <c r="B280" t="inlineStr">
-        <is>
-          <t>VIPS</t>
-        </is>
-      </c>
-      <c r="C280" t="n">
-        <v>12.56</v>
-      </c>
-      <c r="D280" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="E280" t="n">
-        <v>5.832</v>
-      </c>
-      <c r="F280" t="n">
-        <v>6.479</v>
-      </c>
-      <c r="G280" t="n">
-        <v>6.44</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" t="inlineStr">
-        <is>
-          <t>The Mosaic Company</t>
-        </is>
-      </c>
-      <c r="B281" t="inlineStr">
-        <is>
-          <t>MOS</t>
-        </is>
-      </c>
-      <c r="C281" t="n">
-        <v>25.81</v>
-      </c>
-      <c r="D281" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="E281" t="n">
-        <v>6.237</v>
-      </c>
-      <c r="F281" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="G281" t="n">
-        <v>46.93</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" t="inlineStr">
-        <is>
-          <t>ChampionX Corporation</t>
-        </is>
-      </c>
-      <c r="B282" t="inlineStr">
-        <is>
-          <t>CHX</t>
-        </is>
-      </c>
-      <c r="C282" t="n">
-        <v>24.47</v>
-      </c>
-      <c r="D282" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="E282" t="n">
-        <v>5.858</v>
-      </c>
-      <c r="F282" t="n">
-        <v>4.669</v>
-      </c>
-      <c r="G282" t="n">
-        <v>14.83</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" t="inlineStr">
-        <is>
-          <t>LyondellBasell Industries N.V.</t>
-        </is>
-      </c>
-      <c r="B283" t="inlineStr">
-        <is>
-          <t>LYB</t>
-        </is>
-      </c>
-      <c r="C283" t="n">
-        <v>56.89</v>
-      </c>
-      <c r="D283" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="E283" t="n">
-        <v>5.219</v>
-      </c>
-      <c r="F283" t="n">
-        <v>18.401</v>
-      </c>
-      <c r="G283" t="n">
-        <v>13.74</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="A284" t="inlineStr">
-        <is>
-          <t>Realty Income Corporation</t>
-        </is>
-      </c>
-      <c r="B284" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="C284" t="n">
-        <v>55.22</v>
-      </c>
-      <c r="D284" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="E284" t="n">
-        <v>6.513</v>
-      </c>
-      <c r="F284" t="n">
-        <v>49.243</v>
-      </c>
-      <c r="G284" t="n">
-        <v>56.35</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="A285" t="inlineStr">
-        <is>
-          <t>Paycor HCM, Inc.</t>
-        </is>
-      </c>
-      <c r="B285" t="inlineStr">
-        <is>
-          <t>PYCR</t>
-        </is>
-      </c>
-      <c r="C285" t="n">
-        <v>22.49</v>
-      </c>
-      <c r="D285" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="E285" t="n">
-        <v>5.166</v>
-      </c>
-      <c r="F285" t="n">
-        <v>4.088</v>
-      </c>
-      <c r="G285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" t="inlineStr">
-        <is>
-          <t>Best Buy Co., Inc.</t>
-        </is>
-      </c>
-      <c r="B286" t="inlineStr">
-        <is>
-          <t>BBY</t>
-        </is>
-      </c>
-      <c r="C286" t="n">
-        <v>60.43</v>
-      </c>
-      <c r="D286" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="E286" t="n">
-        <v>5.163</v>
-      </c>
-      <c r="F286" t="n">
-        <v>12.773</v>
-      </c>
-      <c r="G286" t="n">
-        <v>14.12</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" t="inlineStr">
-        <is>
-          <t>Amphenol Corporation</t>
-        </is>
-      </c>
-      <c r="B287" t="inlineStr">
-        <is>
-          <t>APH</t>
-        </is>
-      </c>
-      <c r="C287" t="n">
-        <v>65.40000000000001</v>
-      </c>
-      <c r="D287" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="E287" t="n">
-        <v>6.469</v>
-      </c>
-      <c r="F287" t="n">
-        <v>79.25</v>
-      </c>
-      <c r="G287" t="n">
-        <v>34.06</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" t="inlineStr">
-        <is>
-          <t>Berkshire Hathaway Inc.</t>
-        </is>
-      </c>
-      <c r="B288" t="inlineStr">
-        <is>
-          <t>BRK-B</t>
-        </is>
-      </c>
-      <c r="C288" t="n">
-        <v>524.11</v>
-      </c>
-      <c r="D288" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="E288" t="n">
-        <v>5.124</v>
-      </c>
-      <c r="F288" t="n">
-        <v>1129</v>
-      </c>
-      <c r="G288" t="n">
-        <v>12.71</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="A289" t="inlineStr">
-        <is>
-          <t>Palo Alto Networks, Inc.</t>
-        </is>
-      </c>
-      <c r="B289" t="inlineStr">
-        <is>
-          <t>PANW</t>
-        </is>
-      </c>
-      <c r="C289" t="n">
-        <v>168.34</v>
-      </c>
-      <c r="D289" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="E289" t="n">
-        <v>6.264</v>
-      </c>
-      <c r="F289" t="n">
-        <v>111.458</v>
-      </c>
-      <c r="G289" t="n">
-        <v>95.11</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="A290" t="inlineStr">
-        <is>
-          <t>Albertsons Companies, Inc.</t>
-        </is>
-      </c>
-      <c r="B290" t="inlineStr">
-        <is>
-          <t>ACI</t>
-        </is>
-      </c>
-      <c r="C290" t="n">
-        <v>21.19</v>
-      </c>
-      <c r="D290" t="n">
-        <v>-0.17</v>
-      </c>
-      <c r="E290" t="n">
-        <v>5.069</v>
-      </c>
-      <c r="F290" t="n">
-        <v>12.277</v>
-      </c>
-      <c r="G290" t="n">
-        <v>11.9</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" t="inlineStr">
-        <is>
-          <t>Flagstar Financial, Inc.</t>
-        </is>
-      </c>
-      <c r="B291" t="inlineStr">
-        <is>
-          <t>FLG</t>
-        </is>
-      </c>
-      <c r="C291" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="D291" t="n">
-        <v>-0.23</v>
-      </c>
-      <c r="E291" t="n">
-        <v>5.512</v>
-      </c>
-      <c r="F291" t="n">
-        <v>4.122</v>
-      </c>
-      <c r="G291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" t="inlineStr">
-        <is>
-          <t>Organon &amp; Co.</t>
-        </is>
-      </c>
-      <c r="B292" t="inlineStr">
-        <is>
-          <t>OGN</t>
-        </is>
-      </c>
-      <c r="C292" t="n">
-        <v>11.18</v>
-      </c>
-      <c r="D292" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="E292" t="n">
-        <v>5.056</v>
-      </c>
-      <c r="F292" t="n">
-        <v>2.884</v>
-      </c>
-      <c r="G292" t="n">
-        <v>3.36</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" t="inlineStr">
-        <is>
-          <t>Enterprise Products Partners L.P.</t>
-        </is>
-      </c>
-      <c r="B293" t="inlineStr">
-        <is>
-          <t>EPD</t>
-        </is>
-      </c>
-      <c r="C293" t="n">
-        <v>29.63</v>
-      </c>
-      <c r="D293" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="E293" t="n">
-        <v>5.048</v>
-      </c>
-      <c r="F293" t="n">
-        <v>64.17</v>
-      </c>
-      <c r="G293" t="n">
-        <v>11.01</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="A294" t="inlineStr">
-        <is>
-          <t>Teck Resources Limited</t>
-        </is>
-      </c>
-      <c r="B294" t="inlineStr">
-        <is>
-          <t>TECK</t>
-        </is>
-      </c>
-      <c r="C294" t="n">
-        <v>33.6</v>
-      </c>
-      <c r="D294" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="E294" t="n">
-        <v>5.037</v>
-      </c>
-      <c r="F294" t="n">
-        <v>16.822</v>
-      </c>
-      <c r="G294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" t="inlineStr">
-        <is>
-          <t>Yum China Holdings, Inc.</t>
-        </is>
-      </c>
-      <c r="B295" t="inlineStr">
-        <is>
-          <t>YUMC</t>
-        </is>
-      </c>
-      <c r="C295" t="n">
-        <v>44.39</v>
-      </c>
-      <c r="D295" t="n">
-        <v>-0.43</v>
-      </c>
-      <c r="E295" t="n">
-        <v>5.686</v>
-      </c>
-      <c r="F295" t="n">
-        <v>16.615</v>
-      </c>
-      <c r="G295" t="n">
-        <v>19.05</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" t="inlineStr">
-        <is>
-          <t>Mobileye Global Inc.</t>
-        </is>
-      </c>
-      <c r="B296" t="inlineStr">
-        <is>
-          <t>MBLY</t>
-        </is>
-      </c>
-      <c r="C296" t="n">
-        <v>12.95</v>
-      </c>
-      <c r="D296" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="E296" t="n">
-        <v>5.017</v>
-      </c>
-      <c r="F296" t="n">
-        <v>10.512</v>
-      </c>
-      <c r="G296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" t="inlineStr">
-        <is>
-          <t>Philip Morris International Inc.</t>
-        </is>
-      </c>
-      <c r="B297" t="inlineStr">
-        <is>
-          <t>PM</t>
-        </is>
-      </c>
-      <c r="C297" t="n">
-        <v>153.89</v>
-      </c>
-      <c r="D297" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="E297" t="n">
-        <v>6.459</v>
-      </c>
-      <c r="F297" t="n">
-        <v>239.528</v>
-      </c>
-      <c r="G297" t="n">
-        <v>25.65</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" t="inlineStr">
-        <is>
-          <t>Celestica Inc.</t>
-        </is>
-      </c>
-      <c r="B298" t="inlineStr">
-        <is>
-          <t>CLS</t>
-        </is>
-      </c>
-      <c r="C298" t="n">
-        <v>79.13</v>
-      </c>
-      <c r="D298" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="E298" t="n">
-        <v>5.209</v>
-      </c>
-      <c r="F298" t="n">
-        <v>9.176</v>
-      </c>
-      <c r="G298" t="n">
-        <v>21.92</v>
-      </c>
+        <v>2.688</v>
+      </c>
+      <c r="G275" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
